--- a/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
+++ b/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="645">
   <si>
     <t xml:space="preserve">Term</t>
   </si>
@@ -470,612 +470,627 @@
     <t xml:space="preserve">2 (5.4%)</t>
   </si>
   <si>
+    <t xml:space="preserve">2 (28.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (35.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (71.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (18.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (13.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (10.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (80%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 (67.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (24.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (8.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (1.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93 (75.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (4.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (54.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (36.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 (36.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (66.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (45.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (63.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59 (63.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (33.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (1.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (16.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (90.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (9.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Native Hawaiian or Other Pacific Islander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (72.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (8.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (18.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84 (90.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (81.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88 (94.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (4.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNG, To be classified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (2.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNG/GNT, BRAF fusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (5.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNG/GNT, BRAF V600E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 (23.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNG/GNT, Other alteration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47 (50.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (83.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNG/GNT, WT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (16.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNT, To be classified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73 (78.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (3.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (6.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69 (74.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (21.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (6.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 (16.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (7.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121 (67.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (1.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (33.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (33.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (46.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 (37.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (66.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (66.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (53.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76 (62.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (33.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (3.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (7.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (1.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 (73.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (15.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (9.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (23.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108 (89.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 (83.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (16.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (84.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117 (96.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB, Group3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (26.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 (19.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB, Group4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (30%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53 (43.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB, SHH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 (20.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB, To be classified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (10%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (2.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB, WNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (13.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 (21.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (69.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83 (68.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (9.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (75%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86 (71.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (23.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 (24.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (56%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (16%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (35.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (64.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (85.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (14.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (7.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (21.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (57.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (6.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (15.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 (64.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (51.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (48.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (6.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 (93.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (3.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chondromyxoid fibroma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chordoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (17.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ewing sarcoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (41.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hemangioblastoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (20.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflammatory Myofibroblastic Tumor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesenchymal tumor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarcoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (24.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (13.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (44.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (37.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (8.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (17.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (56.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (75%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (76.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germinoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (30.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed germ cell tumor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teratoma</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;NA&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">7 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (28.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (35.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (71.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (18.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (13.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (10.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (80%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 (67.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (24.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (8.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (1.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93 (75.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (4.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (54.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (36.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34 (36.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (66.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (45.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (63.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59 (63.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (33.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (1.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (16.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (90.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (9.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Native Hawaiian or Other Pacific Islander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (72.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (8.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (18.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84 (90.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (81.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88 (94.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (4.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNG, To be classified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (2.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNG/GNT, BRAF fusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (5.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNG/GNT, BRAF V600E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 (23.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNG/GNT, Other alteration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47 (50.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (83.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNG/GNT, WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (16.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNT, To be classified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73 (78.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (3.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (6.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69 (74.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (21.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (6.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 (16.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (7.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121 (67.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (1.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (33.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (33.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (46.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45 (37.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (66.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (66.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (53.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76 (62.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (33.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (3.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (7.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (1.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 (73.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (15.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (9.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (23.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108 (89.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 (83.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (16.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (84.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117 (96.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB, Group3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (26.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 (19.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB, Group4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (30%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53 (43.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB, SHH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 (20.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB, To be classified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (10%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (2.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB, WNT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (13.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 (21.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (69.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83 (68.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (9.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (75%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86 (71.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (23.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 (24.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (56%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (16%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (35.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (64.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (85.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (14.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (7.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (21.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (57.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (6.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (15.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 (64.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (51.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (48.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (6.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27 (93.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (3.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHDM, poorly differentiated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHDM, To be classified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (13.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EWS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (41.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (17.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (24.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (44.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (37.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (8.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (17.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (56.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (75%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (76.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (30.8%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">11.03</t>
   </si>
   <si>
@@ -1148,18 +1163,6 @@
     <t xml:space="preserve">39 (97.5%)</t>
   </si>
   <si>
-    <t xml:space="preserve">CRANIO, ADAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33 (82.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRANIO, To be classified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (17.5%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">32 (80%)</t>
   </si>
   <si>
@@ -1223,36 +1226,12 @@
     <t xml:space="preserve">25 (86.2%)</t>
   </si>
   <si>
-    <t xml:space="preserve">NBL, MYCN amplified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NBL, MYCN non-amplified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NBL, To be classified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB, Group 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">3 (50%)</t>
   </si>
   <si>
-    <t xml:space="preserve">PB, Group 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB, MYC/FOXR2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB, To be classified</t>
-  </si>
-  <si>
     <t xml:space="preserve">16 (55.2%)</t>
   </si>
   <si>
-    <t xml:space="preserve">6 (20.7%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">8 (27.6%)</t>
   </si>
   <si>
@@ -1526,18 +1505,6 @@
     <t xml:space="preserve">14 (23.7%)</t>
   </si>
   <si>
-    <t xml:space="preserve">DMG, H3 K28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59 (100%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">26 (96.3%)</t>
   </si>
   <si>
@@ -1965,9 +1932,6 @@
   </si>
   <si>
     <t xml:space="preserve">Unknown...12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52 (100%)</t>
   </si>
   <si>
     <t xml:space="preserve">49 (94.2%)</t>
@@ -3088,19 +3052,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C2" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D2" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="E2" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="F2" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3">
@@ -3111,13 +3075,13 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D3" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E3" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="F3" t="s">
         <v>131</v>
@@ -3131,13 +3095,13 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D4" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E4" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -3154,7 +3118,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -3171,13 +3135,13 @@
         <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
@@ -3191,7 +3155,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -3211,13 +3175,13 @@
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D8" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E8" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -3231,13 +3195,13 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -3251,13 +3215,13 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D10" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E10" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -3268,16 +3232,16 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C11" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D11" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="E11" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F11" t="s">
         <v>131</v>
@@ -3291,13 +3255,13 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -3305,19 +3269,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -3325,19 +3289,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B14" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C14" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D14" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="E14" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F14" t="s">
         <v>131</v>
@@ -3345,19 +3309,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="D15" t="s">
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -3365,7 +3329,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
@@ -3377,7 +3341,7 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="F16" t="s">
         <v>25</v>
@@ -3385,7 +3349,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -3397,7 +3361,7 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F17" t="s">
         <v>25</v>
@@ -3405,7 +3369,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -3417,7 +3381,7 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
@@ -3425,19 +3389,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B19" t="s">
         <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D19" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E19" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>
@@ -3445,19 +3409,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="D20" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E20" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
@@ -3468,16 +3432,16 @@
         <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C21" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D21" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E21" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
@@ -3491,7 +3455,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
@@ -3511,13 +3475,13 @@
         <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="F23" t="s">
         <v>25</v>
@@ -3534,7 +3498,7 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E24" t="s">
         <v>25</v>
@@ -3548,16 +3512,16 @@
         <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C25" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D25" t="s">
+        <v>444</v>
+      </c>
+      <c r="E25" t="s">
         <v>451</v>
-      </c>
-      <c r="E25" t="s">
-        <v>458</v>
       </c>
       <c r="F25" t="s">
         <v>25</v>
@@ -3571,13 +3535,13 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F26" t="s">
         <v>131</v>
@@ -3591,13 +3555,13 @@
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="D27" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E27" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F27" t="s">
         <v>25</v>
@@ -3608,16 +3572,16 @@
         <v>99</v>
       </c>
       <c r="B28" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C28" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D28" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="E28" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="F28" t="s">
         <v>131</v>
@@ -3631,13 +3595,13 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D29" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E29" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="F29" t="s">
         <v>25</v>
@@ -3657,7 +3621,7 @@
         <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F30" t="s">
         <v>25</v>
@@ -3668,19 +3632,19 @@
         <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C31" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D31" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="E31" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F31" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="32">
@@ -3688,19 +3652,19 @@
         <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C32" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D32" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E32" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F32" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="33">
@@ -3708,16 +3672,16 @@
         <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C33" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D33" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="E33" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F33" t="e">
         <v>#N/A</v>
@@ -3762,19 +3726,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C2" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="D2" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="E2" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="F2" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3">
@@ -3785,16 +3749,16 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="D3" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="E3" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F3" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4">
@@ -3802,19 +3766,19 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C4" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D4" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="E4" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F4" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5">
@@ -3831,7 +3795,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -3845,16 +3809,16 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D6" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7">
@@ -3865,7 +3829,7 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -3885,7 +3849,7 @@
         <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -3899,13 +3863,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -3922,19 +3886,19 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
+        <v>475</v>
+      </c>
+      <c r="C10" t="s">
         <v>482</v>
       </c>
-      <c r="C10" t="s">
-        <v>489</v>
-      </c>
       <c r="D10" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="E10" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="F10" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11">
@@ -3945,13 +3909,13 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -3965,13 +3929,13 @@
         <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -3982,19 +3946,19 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="C13" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="D13" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="E13" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F13" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14">
@@ -4005,173 +3969,173 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="F14" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>499</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>501</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>497</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="F15" t="s">
-        <v>497</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>492</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>484</v>
       </c>
       <c r="E16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>503</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="E17" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F17" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>481</v>
       </c>
       <c r="D18" t="s">
-        <v>487</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>505</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>480</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>488</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>487</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>495</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>480</v>
       </c>
       <c r="E20" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F20" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="D21" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="E21" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="F21" t="s">
-        <v>480</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="D22" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="E22" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -4179,102 +4143,82 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>488</v>
       </c>
       <c r="C23" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="D23" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="E23" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="C24" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="D24" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="E24" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="F24" t="s">
-        <v>484</v>
+        <v>506</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C25" t="s">
-        <v>514</v>
+        <v>333</v>
       </c>
       <c r="D25" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="E25" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F25" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="C26" t="s">
-        <v>332</v>
+        <v>512</v>
       </c>
       <c r="D26" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="E26" t="s">
-        <v>520</v>
+        <v>276</v>
       </c>
       <c r="F26" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" t="s">
-        <v>522</v>
-      </c>
-      <c r="C27" t="s">
-        <v>523</v>
-      </c>
-      <c r="D27" t="s">
-        <v>524</v>
-      </c>
-      <c r="E27" t="s">
-        <v>280</v>
-      </c>
-      <c r="F27" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -4313,16 +4257,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C2" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D2" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="E2" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3">
@@ -4330,7 +4274,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
         <v>130</v>
@@ -4339,7 +4283,7 @@
         <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4">
@@ -4347,7 +4291,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="C4" t="s">
         <v>134</v>
@@ -4356,7 +4300,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
     <row r="5">
@@ -4398,7 +4342,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -4424,7 +4368,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9">
@@ -4432,7 +4376,7 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
         <v>134</v>
@@ -4441,7 +4385,7 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10">
@@ -4458,7 +4402,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11">
@@ -4469,7 +4413,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -4483,7 +4427,7 @@
         <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C12" t="s">
         <v>130</v>
@@ -4492,7 +4436,7 @@
         <v>131</v>
       </c>
       <c r="E12" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13">
@@ -4509,15 +4453,15 @@
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="B14" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s">
         <v>141</v>
@@ -4526,15 +4470,15 @@
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="B15" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="C15" t="s">
         <v>130</v>
@@ -4543,15 +4487,15 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="B16" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="C16" t="s">
         <v>143</v>
@@ -4560,12 +4504,12 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -4577,7 +4521,7 @@
         <v>131</v>
       </c>
       <c r="E17" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
     </row>
     <row r="18">
@@ -4585,7 +4529,7 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C18" t="s">
         <v>137</v>
@@ -4594,7 +4538,7 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19">
@@ -4602,7 +4546,7 @@
         <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="C19" t="s">
         <v>143</v>
@@ -4611,7 +4555,7 @@
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
     </row>
     <row r="20">
@@ -4619,7 +4563,7 @@
         <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C20" t="s">
         <v>137</v>
@@ -4636,16 +4580,16 @@
         <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="C21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D21" t="s">
         <v>131</v>
       </c>
       <c r="E21" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
     </row>
     <row r="22">
@@ -4662,7 +4606,7 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
     </row>
     <row r="23">
@@ -4679,7 +4623,7 @@
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
     </row>
     <row r="24">
@@ -4687,16 +4631,16 @@
         <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C24" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
     </row>
     <row r="25">
@@ -4704,7 +4648,7 @@
         <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C25" t="s">
         <v>137</v>
@@ -4713,7 +4657,7 @@
         <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
     </row>
     <row r="26">
@@ -4721,7 +4665,7 @@
         <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
@@ -4730,7 +4674,7 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
     </row>
     <row r="27">
@@ -4738,16 +4682,16 @@
         <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="C27" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="D27" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="E27" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
     </row>
     <row r="28">
@@ -4755,16 +4699,16 @@
         <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="C28" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="D28" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="E28" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
     </row>
     <row r="29">
@@ -4772,16 +4716,16 @@
         <v>120</v>
       </c>
       <c r="B29" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="C29" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="D29" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="E29" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -4823,19 +4767,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="C2" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="D2" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="E2" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="F2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3">
@@ -4843,16 +4787,16 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -4863,19 +4807,19 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C4" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E4" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5">
@@ -4892,7 +4836,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -4915,7 +4859,7 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7">
@@ -4923,7 +4867,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -4946,7 +4890,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D8" t="s">
         <v>139</v>
@@ -4960,7 +4904,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -4983,19 +4927,19 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C10" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="D10" t="s">
         <v>139</v>
       </c>
       <c r="E10" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="F10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11">
@@ -5006,13 +4950,13 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="D11" t="s">
         <v>139</v>
       </c>
       <c r="E11" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -5026,10 +4970,10 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
@@ -5043,19 +4987,19 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C13" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D13" t="s">
         <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="F13" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14">
@@ -5063,16 +5007,16 @@
         <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C14" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D14" t="s">
         <v>139</v>
       </c>
       <c r="E14" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
@@ -5080,10 +5024,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -5092,7 +5036,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -5100,39 +5044,39 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="B16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C16" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D16" t="s">
         <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="F17" t="s">
         <v>25</v>
@@ -5140,7 +5084,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -5152,7 +5096,7 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
@@ -5160,19 +5104,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D19" t="s">
         <v>139</v>
       </c>
       <c r="E19" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>
@@ -5183,16 +5127,16 @@
         <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C20" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="D20" t="s">
         <v>139</v>
       </c>
       <c r="E20" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
@@ -5203,19 +5147,19 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C21" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D21" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E21" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="F21" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22">
@@ -5226,13 +5170,13 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D22" t="s">
         <v>139</v>
       </c>
       <c r="E22" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -5252,7 +5196,7 @@
         <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="F23" t="s">
         <v>25</v>
@@ -5266,16 +5210,16 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D24" t="s">
         <v>139</v>
       </c>
       <c r="E24" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="F24" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25">
@@ -5292,7 +5236,7 @@
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="F25" t="s">
         <v>25</v>
@@ -5323,16 +5267,16 @@
         <v>98</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C27" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D27" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E27" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F27" t="s">
         <v>25</v>
@@ -5343,19 +5287,19 @@
         <v>99</v>
       </c>
       <c r="B28" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C28" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="D28" t="s">
         <v>129</v>
       </c>
       <c r="E28" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="F28" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29">
@@ -5363,19 +5307,19 @@
         <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C29" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="F29" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30">
@@ -5383,16 +5327,16 @@
         <v>107</v>
       </c>
       <c r="B30" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C30" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E30" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F30" t="s">
         <v>25</v>
@@ -5403,19 +5347,19 @@
         <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="C31" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="D31" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="E31" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="F31" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
     </row>
     <row r="32">
@@ -5423,19 +5367,19 @@
         <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="C32" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D32" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="E32" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="F32" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
     </row>
     <row r="33">
@@ -5443,19 +5387,19 @@
         <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="C33" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D33" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="E33" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="F33" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -5497,7 +5441,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="C2" t="s">
         <v>65</v>
@@ -5520,16 +5464,16 @@
         <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E3" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="F3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4">
@@ -5540,16 +5484,16 @@
         <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="F4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5">
@@ -5563,7 +5507,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -5577,7 +5521,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -5594,7 +5538,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -5603,7 +5547,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
@@ -5620,16 +5564,16 @@
         <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9">
@@ -5646,7 +5590,7 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -5660,7 +5604,7 @@
         <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -5677,19 +5621,19 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E11" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="F11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12">
@@ -5706,7 +5650,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -5714,50 +5658,50 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C13" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D13" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E13" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="F13" t="s">
-        <v>171</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -5766,18 +5710,18 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="F15" t="s">
-        <v>180</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
@@ -5786,18 +5730,18 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -5806,18 +5750,18 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -5826,7 +5770,7 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
@@ -5834,19 +5778,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>197</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>245</v>
       </c>
       <c r="E19" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>
@@ -5854,122 +5798,102 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="D20" t="s">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
         <v>137</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>602</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>603</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>604</v>
       </c>
       <c r="E22" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>606</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" t="s">
-        <v>613</v>
-      </c>
-      <c r="C23" t="s">
-        <v>614</v>
+        <v>114</v>
+      </c>
+      <c r="B23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C23" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D23" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="E23" t="s">
-        <v>616</v>
-      </c>
-      <c r="F23" t="s">
-        <v>617</v>
+        <v>608</v>
+      </c>
+      <c r="F23" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C24" t="e">
-        <v>#N/A</v>
+        <v>120</v>
+      </c>
+      <c r="B24" t="s">
+        <v>609</v>
+      </c>
+      <c r="C24" t="s">
+        <v>610</v>
       </c>
       <c r="D24" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="E24" t="s">
-        <v>619</v>
-      </c>
-      <c r="F24" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" t="s">
-        <v>620</v>
-      </c>
-      <c r="C25" t="s">
-        <v>621</v>
-      </c>
-      <c r="D25" t="s">
-        <v>622</v>
-      </c>
-      <c r="E25" t="s">
-        <v>620</v>
-      </c>
-      <c r="F25" t="s">
-        <v>623</v>
+        <v>609</v>
+      </c>
+      <c r="F24" t="s">
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -6008,16 +5932,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="C2" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="D2" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="E2" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3">
@@ -6025,13 +5949,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
@@ -6042,13 +5966,13 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E4" t="s">
         <v>131</v>
@@ -6076,7 +6000,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -6096,10 +6020,10 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
@@ -6113,10 +6037,10 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
@@ -6130,7 +6054,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -6144,13 +6068,13 @@
         <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C10" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E10" t="s">
         <v>131</v>
@@ -6167,7 +6091,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
@@ -6175,67 +6099,67 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="D12" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>235</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>245</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="D14" t="s">
-        <v>175</v>
+        <v>520</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D15" t="s">
-        <v>531</v>
+        <v>166</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
@@ -6243,10 +6167,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>245</v>
       </c>
       <c r="C16" t="s">
         <v>231</v>
@@ -6260,86 +6184,69 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>235</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>616</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>617</v>
       </c>
       <c r="D18" t="s">
-        <v>186</v>
+        <v>618</v>
       </c>
       <c r="E18" t="s">
-        <v>131</v>
+        <v>619</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="C19" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="D19" t="s">
-        <v>629</v>
-      </c>
-      <c r="E19" t="s">
-        <v>630</v>
+        <v>622</v>
+      </c>
+      <c r="E19" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" t="s">
-        <v>631</v>
+        <v>120</v>
+      </c>
+      <c r="B20" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C20" t="s">
-        <v>632</v>
-      </c>
-      <c r="D20" t="s">
-        <v>633</v>
+        <v>623</v>
+      </c>
+      <c r="D20" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E20" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C21" t="s">
-        <v>634</v>
-      </c>
-      <c r="D21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E21" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -6382,19 +6289,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="C2" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="D2" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="E2" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="F2" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6309,16 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E3" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -6422,16 +6329,16 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C4" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="F4" t="s">
         <v>131</v>
@@ -6445,13 +6352,13 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E5" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -6482,7 +6389,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -6508,7 +6415,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
@@ -6525,13 +6432,13 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E9" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -6545,13 +6452,13 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -6565,13 +6472,13 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -6582,16 +6489,16 @@
         <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C12" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E12" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="F12" t="s">
         <v>131</v>
@@ -6599,19 +6506,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E13" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -6619,19 +6526,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C14" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="D14" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E14" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="F14" t="s">
         <v>131</v>
@@ -6639,27 +6546,27 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>497</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -6671,15 +6578,15 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -6691,27 +6598,27 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="F17" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>245</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>490</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="E18" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
@@ -6719,47 +6626,47 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>249</v>
+        <v>638</v>
       </c>
       <c r="C19" t="s">
-        <v>497</v>
+        <v>639</v>
       </c>
       <c r="D19" t="s">
-        <v>171</v>
+        <v>640</v>
       </c>
       <c r="E19" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>642</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" t="s">
-        <v>650</v>
-      </c>
-      <c r="C20" t="s">
-        <v>651</v>
-      </c>
-      <c r="D20" t="s">
-        <v>652</v>
+        <v>114</v>
+      </c>
+      <c r="B20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D20" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E20" t="s">
-        <v>653</v>
-      </c>
-      <c r="F20" t="s">
-        <v>654</v>
+        <v>643</v>
+      </c>
+      <c r="F20" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B21" t="e">
         <v>#N/A</v>
@@ -6771,29 +6678,9 @@
         <v>#N/A</v>
       </c>
       <c r="E21" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="F21" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E22" t="s">
-        <v>656</v>
-      </c>
-      <c r="F22" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -7000,44 +6887,44 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
         <v>147</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>148</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
         <v>149</v>
-      </c>
-      <c r="D12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
         <v>137</v>
@@ -7046,15 +6933,15 @@
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>137</v>
@@ -7063,12 +6950,12 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -7080,12 +6967,12 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -7094,117 +6981,117 @@
         <v>137</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="E17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
         <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="E22" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" t="s">
-        <v>162</v>
-      </c>
-      <c r="D23" t="s">
-        <v>163</v>
-      </c>
-      <c r="E23" t="s">
-        <v>164</v>
+        <v>114</v>
+      </c>
+      <c r="B23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E23" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B24" t="e">
         <v>#N/A</v>
@@ -7216,23 +7103,6 @@
         <v>#N/A</v>
       </c>
       <c r="E24" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E25" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -7275,19 +7145,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3">
@@ -7295,19 +7165,19 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" t="s">
         <v>169</v>
-      </c>
-      <c r="C3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="4">
@@ -7315,19 +7185,19 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
@@ -7344,10 +7214,10 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6">
@@ -7361,13 +7231,13 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7">
@@ -7375,10 +7245,10 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -7392,7 +7262,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -7401,7 +7271,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
@@ -7418,16 +7288,16 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
@@ -7435,19 +7305,19 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" t="s">
         <v>182</v>
       </c>
-      <c r="C10" t="s">
-        <v>186</v>
-      </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
@@ -7458,13 +7328,13 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -7475,19 +7345,19 @@
         <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" t="s">
         <v>186</v>
       </c>
-      <c r="D12" t="s">
-        <v>171</v>
-      </c>
-      <c r="E12" t="s">
-        <v>190</v>
-      </c>
       <c r="F12" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13">
@@ -7504,7 +7374,7 @@
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -7512,19 +7382,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
@@ -7532,19 +7402,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D15" t="s">
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -7552,59 +7422,59 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E16" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F17" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E18" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
@@ -7612,19 +7482,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>
@@ -7635,19 +7505,19 @@
         <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D20" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E20" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F20" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21">
@@ -7655,16 +7525,16 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C21" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
@@ -7675,19 +7545,19 @@
         <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C22" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F22" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23">
@@ -7704,7 +7574,7 @@
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F23" t="s">
         <v>25</v>
@@ -7724,7 +7594,7 @@
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F24" t="s">
         <v>25</v>
@@ -7744,7 +7614,7 @@
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F25" t="s">
         <v>25</v>
@@ -7755,7 +7625,7 @@
         <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
@@ -7764,7 +7634,7 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F26" t="s">
         <v>25</v>
@@ -7778,13 +7648,13 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D27" t="s">
         <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F27" t="s">
         <v>25</v>
@@ -7795,19 +7665,19 @@
         <v>99</v>
       </c>
       <c r="B28" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D28" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E28" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F28" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29">
@@ -7815,16 +7685,16 @@
         <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F29" t="s">
         <v>25</v>
@@ -7844,7 +7714,7 @@
         <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F30" t="s">
         <v>25</v>
@@ -7855,19 +7725,19 @@
         <v>108</v>
       </c>
       <c r="B31" t="s">
+        <v>206</v>
+      </c>
+      <c r="C31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D31" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" t="s">
+        <v>209</v>
+      </c>
+      <c r="F31" t="s">
         <v>210</v>
-      </c>
-      <c r="C31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D31" t="s">
-        <v>212</v>
-      </c>
-      <c r="E31" t="s">
-        <v>213</v>
-      </c>
-      <c r="F31" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="32">
@@ -7875,19 +7745,19 @@
         <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D32" t="e">
         <v>#N/A</v>
       </c>
       <c r="E32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F32" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33">
@@ -7895,7 +7765,7 @@
         <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C33" t="e">
         <v>#N/A</v>
@@ -7904,10 +7774,10 @@
         <v>#N/A</v>
       </c>
       <c r="E33" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F33" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -7949,19 +7819,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" t="s">
         <v>222</v>
-      </c>
-      <c r="C2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="3">
@@ -7969,19 +7839,19 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F3" t="s">
         <v>227</v>
-      </c>
-      <c r="C3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F3" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="4">
@@ -7992,16 +7862,16 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5">
@@ -8012,7 +7882,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -8035,13 +7905,13 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7">
@@ -8072,13 +7942,13 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D8" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -8092,16 +7962,16 @@
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D9" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E9" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F9" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10">
@@ -8112,13 +7982,13 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D10" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E10" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -8132,13 +8002,13 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D11" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E11" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -8152,16 +8022,16 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E12" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F12" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13">
@@ -8175,10 +8045,10 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E13" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -8186,19 +8056,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D14" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E14" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
@@ -8206,39 +8076,39 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B15" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C15" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D15" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E15" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F15" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E16" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F16" t="s">
         <v>25</v>
@@ -8246,19 +8116,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B17" t="s">
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D17" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E17" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F17" t="s">
         <v>25</v>
@@ -8266,22 +8136,22 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B18" t="s">
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D18" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E18" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F18" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19">
@@ -8289,19 +8159,19 @@
         <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C19" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D19" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E19" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F19" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20">
@@ -8315,7 +8185,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E20" t="s">
         <v>25</v>
@@ -8332,16 +8202,16 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D21" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E21" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F21" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22">
@@ -8352,13 +8222,13 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D22" t="s">
         <v>236</v>
       </c>
-      <c r="D22" t="s">
-        <v>240</v>
-      </c>
       <c r="E22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -8378,7 +8248,7 @@
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F23" t="s">
         <v>25</v>
@@ -8389,19 +8259,19 @@
         <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C24" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D24" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E24" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F24" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25">
@@ -8412,16 +8282,16 @@
         <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E25" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26">
@@ -8432,13 +8302,13 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F26" t="s">
         <v>25</v>
@@ -8449,19 +8319,19 @@
         <v>108</v>
       </c>
       <c r="B27" t="s">
+        <v>268</v>
+      </c>
+      <c r="C27" t="s">
+        <v>269</v>
+      </c>
+      <c r="D27" t="s">
+        <v>270</v>
+      </c>
+      <c r="E27" t="s">
+        <v>271</v>
+      </c>
+      <c r="F27" t="s">
         <v>272</v>
-      </c>
-      <c r="C27" t="s">
-        <v>273</v>
-      </c>
-      <c r="D27" t="s">
-        <v>274</v>
-      </c>
-      <c r="E27" t="s">
-        <v>275</v>
-      </c>
-      <c r="F27" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="28">
@@ -8469,19 +8339,19 @@
         <v>114</v>
       </c>
       <c r="B28" t="s">
+        <v>273</v>
+      </c>
+      <c r="C28" t="s">
+        <v>274</v>
+      </c>
+      <c r="D28" t="s">
+        <v>275</v>
+      </c>
+      <c r="E28" t="s">
+        <v>276</v>
+      </c>
+      <c r="F28" t="s">
         <v>277</v>
-      </c>
-      <c r="C28" t="s">
-        <v>278</v>
-      </c>
-      <c r="D28" t="s">
-        <v>279</v>
-      </c>
-      <c r="E28" t="s">
-        <v>280</v>
-      </c>
-      <c r="F28" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="29">
@@ -8489,19 +8359,19 @@
         <v>120</v>
       </c>
       <c r="B29" t="s">
+        <v>278</v>
+      </c>
+      <c r="C29" t="s">
+        <v>279</v>
+      </c>
+      <c r="D29" t="s">
+        <v>280</v>
+      </c>
+      <c r="E29" t="s">
+        <v>281</v>
+      </c>
+      <c r="F29" t="s">
         <v>282</v>
-      </c>
-      <c r="C29" t="s">
-        <v>283</v>
-      </c>
-      <c r="D29" t="s">
-        <v>284</v>
-      </c>
-      <c r="E29" t="s">
-        <v>285</v>
-      </c>
-      <c r="F29" t="s">
-        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -8543,19 +8413,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3">
@@ -8563,19 +8433,19 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4">
@@ -8583,19 +8453,19 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" t="s">
         <v>231</v>
-      </c>
-      <c r="C4" t="s">
-        <v>235</v>
       </c>
       <c r="D4" t="s">
         <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5">
@@ -8615,7 +8485,7 @@
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6">
@@ -8623,10 +8493,10 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" t="s">
         <v>231</v>
-      </c>
-      <c r="C6" t="s">
-        <v>235</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -8643,7 +8513,7 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -8660,7 +8530,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -8686,7 +8556,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -8695,7 +8565,7 @@
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10">
@@ -8706,13 +8576,13 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -8726,7 +8596,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -8743,19 +8613,19 @@
         <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D12" t="s">
         <v>131</v>
       </c>
       <c r="E12" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13">
@@ -8772,7 +8642,7 @@
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -8780,30 +8650,30 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
         <v>294</v>
       </c>
       <c r="F14" t="s">
-        <v>296</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -8812,55 +8682,55 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>245</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="E16" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F16" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
-        <v>231</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F17" t="s">
-        <v>292</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -8872,7 +8742,7 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
@@ -8880,141 +8750,121 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>245</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F20" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>231</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F21" t="s">
-        <v>292</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>298</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="E22" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" t="s">
-        <v>301</v>
+        <v>114</v>
+      </c>
+      <c r="B23" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C23" t="s">
         <v>302</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E23" t="s">
         <v>303</v>
       </c>
-      <c r="E23" t="s">
-        <v>304</v>
-      </c>
-      <c r="F23" t="s">
-        <v>305</v>
+      <c r="F23" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B24" t="e">
         <v>#N/A</v>
       </c>
       <c r="C24" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D24" t="e">
         <v>#N/A</v>
       </c>
       <c r="E24" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F24" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C25" t="s">
-        <v>308</v>
-      </c>
-      <c r="D25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E25" t="s">
-        <v>303</v>
-      </c>
-      <c r="F25" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -9057,19 +8907,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3">
@@ -9077,19 +8927,19 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C3" t="s">
         <v>139</v>
       </c>
       <c r="D3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F3" t="s">
         <v>231</v>
-      </c>
-      <c r="E3" t="s">
-        <v>312</v>
-      </c>
-      <c r="F3" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="4">
@@ -9103,13 +8953,13 @@
         <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5">
@@ -9123,7 +8973,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -9137,7 +8987,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -9157,19 +9007,19 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8">
@@ -9177,16 +9027,16 @@
         <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E8" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -9206,7 +9056,7 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -9217,19 +9067,19 @@
         <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C10" t="s">
         <v>139</v>
       </c>
       <c r="D10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E10" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11">
@@ -9246,7 +9096,7 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -9254,10 +9104,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -9266,7 +9116,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>316</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -9274,7 +9124,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -9286,15 +9136,15 @@
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F13" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -9306,55 +9156,55 @@
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F14" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>318</v>
       </c>
       <c r="B15" t="s">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="E15" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F15" t="s">
-        <v>235</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>320</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D16" t="s">
-        <v>235</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>322</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>235</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -9363,10 +9213,10 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c r="E17" t="s">
-        <v>314</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
         <v>25</v>
@@ -9374,50 +9224,50 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>322</v>
       </c>
       <c r="B18" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C18" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="D18" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E18" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c r="E19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>235</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
@@ -9426,47 +9276,47 @@
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="F20" t="s">
-        <v>235</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D21" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E21" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="F21" t="s">
-        <v>235</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>235</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -9474,10 +9324,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -9486,38 +9336,38 @@
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" t="s">
         <v>231</v>
       </c>
-      <c r="C24" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" t="s">
-        <v>249</v>
-      </c>
       <c r="E24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F24" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c r="C25" t="s">
         <v>139</v>
@@ -9526,7 +9376,7 @@
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="F25" t="s">
         <v>25</v>
@@ -9534,10 +9384,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
@@ -9546,7 +9396,7 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F26" t="s">
         <v>25</v>
@@ -9554,62 +9404,122 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>326</v>
+        <v>227</v>
       </c>
       <c r="C27" t="s">
-        <v>327</v>
+        <v>136</v>
       </c>
       <c r="D27" t="s">
-        <v>328</v>
+        <v>245</v>
       </c>
       <c r="E27" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F27" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>331</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>332</v>
+        <v>139</v>
       </c>
       <c r="D28" t="s">
-        <v>333</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="F28" t="s">
-        <v>335</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>312</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" t="s">
+        <v>327</v>
+      </c>
+      <c r="C30" t="s">
+        <v>328</v>
+      </c>
+      <c r="D30" t="s">
+        <v>329</v>
+      </c>
+      <c r="E30" t="s">
+        <v>330</v>
+      </c>
+      <c r="F30" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" t="s">
+        <v>332</v>
+      </c>
+      <c r="C31" t="s">
+        <v>333</v>
+      </c>
+      <c r="D31" t="s">
+        <v>334</v>
+      </c>
+      <c r="E31" t="s">
+        <v>335</v>
+      </c>
+      <c r="F31" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
         <v>120</v>
       </c>
-      <c r="B29" t="s">
-        <v>336</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B32" t="s">
         <v>337</v>
       </c>
-      <c r="D29" t="s">
+      <c r="C32" t="s">
         <v>338</v>
       </c>
-      <c r="E29" t="s">
+      <c r="D32" t="s">
         <v>339</v>
       </c>
-      <c r="F29" t="s">
+      <c r="E32" t="s">
         <v>340</v>
+      </c>
+      <c r="F32" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -9648,16 +9558,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3">
@@ -9665,16 +9575,16 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4">
@@ -9682,16 +9592,16 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5">
@@ -9705,7 +9615,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -9716,7 +9626,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -9739,7 +9649,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
@@ -9753,13 +9663,13 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D8" t="s">
         <v>345</v>
       </c>
-      <c r="D8" t="s">
-        <v>344</v>
-      </c>
       <c r="E8" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9">
@@ -9770,13 +9680,13 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10">
@@ -9787,7 +9697,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -9801,129 +9711,129 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D11" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>349</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>296</v>
+        <v>345</v>
       </c>
       <c r="D12" t="s">
-        <v>296</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>344</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>345</v>
       </c>
       <c r="E13" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>352</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>344</v>
+        <v>288</v>
       </c>
       <c r="D14" t="s">
-        <v>344</v>
+        <v>288</v>
       </c>
       <c r="E14" t="s">
-        <v>348</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>353</v>
       </c>
       <c r="B15" t="s">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>345</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>345</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>345</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>346</v>
       </c>
       <c r="E16" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="C17" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>345</v>
       </c>
       <c r="E17" t="s">
-        <v>237</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="C18" t="s">
-        <v>344</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>25</v>
@@ -9934,7 +9844,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -9946,21 +9856,21 @@
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>292</v>
+        <v>345</v>
       </c>
       <c r="D20" t="s">
-        <v>296</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
         <v>233</v>
@@ -9968,70 +9878,121 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>292</v>
+        <v>345</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>348</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>349</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>350</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>351</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>352</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>353</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>354</v>
+        <v>288</v>
       </c>
       <c r="D23" t="s">
-        <v>355</v>
+        <v>292</v>
       </c>
       <c r="E23" t="s">
-        <v>356</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" t="s">
+        <v>288</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" t="s">
+        <v>354</v>
+      </c>
+      <c r="C25" t="s">
+        <v>355</v>
+      </c>
+      <c r="D25" t="s">
+        <v>356</v>
+      </c>
+      <c r="E25" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" t="s">
+        <v>358</v>
+      </c>
+      <c r="C26" t="s">
+        <v>359</v>
+      </c>
+      <c r="D26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E26" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>120</v>
       </c>
-      <c r="B24" t="s">
-        <v>357</v>
-      </c>
-      <c r="C24" t="s">
-        <v>358</v>
-      </c>
-      <c r="D24" t="s">
-        <v>359</v>
-      </c>
-      <c r="E24" t="s">
-        <v>360</v>
+      <c r="B27" t="s">
+        <v>362</v>
+      </c>
+      <c r="C27" t="s">
+        <v>363</v>
+      </c>
+      <c r="D27" t="s">
+        <v>364</v>
+      </c>
+      <c r="E27" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -10073,19 +10034,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C2" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="D2" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E2" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="F2" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3">
@@ -10102,10 +10063,10 @@
         <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="F3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4">
@@ -10122,10 +10083,10 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="F4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5">
@@ -10145,7 +10106,7 @@
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6">
@@ -10153,7 +10114,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -10182,10 +10143,10 @@
         <v>131</v>
       </c>
       <c r="E7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8">
@@ -10202,10 +10163,10 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="F8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9">
@@ -10222,7 +10183,7 @@
         <v>131</v>
       </c>
       <c r="E9" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -10233,7 +10194,7 @@
         <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C10" t="s">
         <v>140</v>
@@ -10242,250 +10203,210 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="F10" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>373</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>371</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>374</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>296</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>375</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="E12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>374</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>137</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>368</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>344</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="E15" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="F15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>223</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>373</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F17" t="s">
-        <v>345</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>227</v>
+        <v>380</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>381</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>206</v>
       </c>
       <c r="E18" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="F18" t="s">
-        <v>344</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
+        <v>114</v>
+      </c>
+      <c r="B19" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>383</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>384</v>
       </c>
       <c r="E19" t="s">
-        <v>378</v>
-      </c>
-      <c r="F19" t="s">
-        <v>25</v>
+        <v>385</v>
+      </c>
+      <c r="F19" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C20" t="s">
-        <v>380</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
-        <v>210</v>
+        <v>387</v>
       </c>
       <c r="E20" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="F20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C21" t="s">
-        <v>382</v>
-      </c>
-      <c r="D21" t="s">
-        <v>383</v>
-      </c>
-      <c r="E21" t="s">
-        <v>384</v>
-      </c>
-      <c r="F21" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" t="s">
-        <v>385</v>
-      </c>
-      <c r="C22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" t="s">
-        <v>386</v>
-      </c>
-      <c r="E22" t="s">
-        <v>387</v>
-      </c>
-      <c r="F22" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -10524,16 +10445,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3">
@@ -10541,16 +10462,16 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4">
@@ -10558,16 +10479,16 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5">
@@ -10581,7 +10502,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -10592,7 +10513,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -10609,7 +10530,7 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -10626,7 +10547,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
         <v>51</v>
@@ -10635,7 +10556,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9">
@@ -10652,7 +10573,7 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10">
@@ -10660,7 +10581,7 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -10669,7 +10590,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11">
@@ -10677,16 +10598,16 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E11" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12">
@@ -10703,97 +10624,97 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>398</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
         <v>399</v>
       </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>400</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>227</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E15" t="s">
-        <v>316</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>401</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>402</v>
+        <v>173</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="E16" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>403</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>314</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>404</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -10805,15 +10726,15 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>405</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="C19" t="s">
         <v>35</v>
@@ -10822,32 +10743,32 @@
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>316</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>402</v>
+        <v>169</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E20" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="C21" t="s">
         <v>59</v>
@@ -10856,211 +10777,75 @@
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>322</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s">
-        <v>402</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>407</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>402</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>403</v>
       </c>
       <c r="D23" t="s">
-        <v>180</v>
+        <v>404</v>
       </c>
       <c r="E23" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>406</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>407</v>
       </c>
       <c r="D24" t="s">
-        <v>180</v>
+        <v>408</v>
       </c>
       <c r="E24" t="s">
-        <v>325</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>410</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>411</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>412</v>
       </c>
       <c r="E25" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" t="s">
-        <v>179</v>
-      </c>
-      <c r="C27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" t="s">
-        <v>171</v>
-      </c>
-      <c r="E28" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" t="s">
-        <v>179</v>
-      </c>
-      <c r="C29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>107</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" t="s">
-        <v>409</v>
-      </c>
-      <c r="C31" t="s">
-        <v>410</v>
-      </c>
-      <c r="D31" t="s">
-        <v>411</v>
-      </c>
-      <c r="E31" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" t="s">
         <v>413</v>
-      </c>
-      <c r="C32" t="s">
-        <v>414</v>
-      </c>
-      <c r="D32" t="s">
-        <v>415</v>
-      </c>
-      <c r="E32" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" t="s">
-        <v>417</v>
-      </c>
-      <c r="C33" t="s">
-        <v>418</v>
-      </c>
-      <c r="D33" t="s">
-        <v>419</v>
-      </c>
-      <c r="E33" t="s">
-        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
+++ b/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="656">
   <si>
     <t xml:space="preserve">Term</t>
   </si>
@@ -878,930 +878,963 @@
     <t xml:space="preserve">10.08</t>
   </si>
   <si>
-    <t xml:space="preserve">3 (12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (56%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (16%)</t>
+    <t xml:space="preserve">3 (11.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (3.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (57.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (15.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (33.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (66.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (86.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (13.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (6.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (26.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (60%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (53.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (6.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (15.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 (64.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (51.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (48.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (6.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 (93.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (3.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chondromyxoid fibroma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chordoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (17.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ewing sarcoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (41.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hemangioblastoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (20.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflammatory Myofibroblastic Tumor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesenchymal tumor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarcoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (24.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (13.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (44.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (37.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (8.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (17.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (56.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (75%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (76.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germinoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (30.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed germ cell tumor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teratoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;NA&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (17.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (14.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (1.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 (59.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (32.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 (67.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (15%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 (85%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (2.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (83.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39 (97.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 (80%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (13%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (24.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (3.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 (59.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (34.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 (65.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (92.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (9.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 (90.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (61.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (3.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 (87.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (15.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (18.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (53.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (31.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (6.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (10.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (13.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (6.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79 (68.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (0.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (62.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 (40.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (37.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47 (59.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (87.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (12.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (1.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (6.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (12.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (7.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (18.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72 (91.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (75%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (2.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75 (94.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPN, MPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPN, PF A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 (36.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPN, PF B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPN, SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPN, SP-MYCN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPN, ST YAP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPN, ST ZFTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (37.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (17.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPN, To be classified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (56.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 (30.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (25.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (20.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (16.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58 (73.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (6.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (8.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 (25.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (4.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59 (56.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (44.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 (47.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (33.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (55.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (80%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (5.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (7.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (40%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (3.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (63%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (25.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (60%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (14.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 (74.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (1.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (66.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (18.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (23.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 (96.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41 (69.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (27.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (25.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 (32.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (11.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (3.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (13.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (51.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 (50.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (22.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (20.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (2.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 (54.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (53.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (27.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (46.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 (80.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 (96.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATRT, MYC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (26.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATRT, SHH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (30.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATRT, To be classified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (19.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATRT, TYR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (23.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (34.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (7.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (61.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (6.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (15.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (7.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61 (67.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 (45.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 (52.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (1.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (7.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (42.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (11.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54 (88.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (64.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (21.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55 (90.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (14.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (9.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHG, H3 G35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (6.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HGG, H3 WT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (78.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 (78.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HGG, IDH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HGG, PXA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IHG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (3.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 (57.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (26.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (28.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 (39.3%)</t>
   </si>
   <si>
     <t xml:space="preserve">5 (35.7%)</t>
   </si>
   <si>
-    <t xml:space="preserve">2 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (64.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (85.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (14.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (7.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (21.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (57.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (6.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (15.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 (64.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (51.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (48.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (6.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27 (93.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (3.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chondromyxoid fibroma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chordoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (17.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ewing sarcoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (41.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hemangioblastoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (20.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflammatory Myofibroblastic Tumor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesenchymal tumor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sarcoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (24.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (13.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (44.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (37.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (8.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (17.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (56.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (75%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (76.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germinoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (30.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mixed germ cell tumor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teratoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;NA&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (17.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (14.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (1.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40 (59.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (32.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27 (67.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (15%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34 (85%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (2.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (83.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39 (97.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 (80%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (12.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (24.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (4.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 (59.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (34.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 (65.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (10.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 (89.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 (86.2%)</t>
+    <t xml:space="preserve">17 (27.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (24.4%)</t>
   </si>
   <si>
     <t xml:space="preserve">3 (50%)</t>
   </si>
   <si>
-    <t xml:space="preserve">16 (55.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (27.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (10.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (13.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (6.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79 (68.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (0.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (62.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 (40.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (37.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47 (59.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (87.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (12.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (1.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (6.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (12.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (7.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (18.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72 (91.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (75%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (2.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75 (94.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPN, MPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPN, PF A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 (36.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPN, PF B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPN, SP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPN, SP-MYCN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPN, ST YAP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPN, ST ZFTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (37.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (17.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPN, To be classified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (56.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 (30.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (25.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (20.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (16.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58 (73.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (6.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (8.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27 (25.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (4.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59 (56.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (44.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 (47.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (33.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (55.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (80%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (5.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (7.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (40%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (3.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 (63%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (25.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (60%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (14.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44 (74.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (1.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (66.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (18.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (23.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 (96.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41 (69.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (27.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (25.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 (32.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (11.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (3.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (13.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (51.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 (50.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (22.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (20.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (2.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 (54.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (53.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (27.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (46.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (3.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (15.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 (80.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 (96.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATRT, MYC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (26.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATRT, SHH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (30.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATRT, To be classified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (19.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATRT, TYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (23.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (11.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (34.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (7.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (61.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (6.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (15.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (7.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61 (67.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 (45.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 (52.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (1.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (42.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (11.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54 (88.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55 (90.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (9.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHG, H3 G35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (6.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HGG, H3 WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (78.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48 (78.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HGG, IDH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HGG, PXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IHG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (3.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35 (57.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (26.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (28.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 (39.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 (27.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (24.4%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">11 (55%)</t>
   </si>
   <si>
@@ -1901,16 +1934,16 @@
     <t xml:space="preserve">12.47</t>
   </si>
   <si>
-    <t xml:space="preserve">3 (4.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (7.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (3.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52 (82.5%)</t>
+    <t xml:space="preserve">4 (6.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (7.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (3.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52 (81.2%)</t>
   </si>
   <si>
     <t xml:space="preserve">17 (32.7%)</t>
@@ -3052,19 +3085,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="C2" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="D2" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="E2" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="F2" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3">
@@ -3075,13 +3108,13 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="D3" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="E3" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="F3" t="s">
         <v>131</v>
@@ -3095,13 +3128,13 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="D4" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="E4" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -3118,7 +3151,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -3135,13 +3168,13 @@
         <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
@@ -3155,7 +3188,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -3175,13 +3208,13 @@
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="D8" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="E8" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -3195,13 +3228,13 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -3215,13 +3248,13 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="D10" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="E10" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -3232,16 +3265,16 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C11" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="D11" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E11" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="F11" t="s">
         <v>131</v>
@@ -3255,13 +3288,13 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -3269,19 +3302,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -3289,19 +3322,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="B14" t="s">
         <v>250</v>
       </c>
       <c r="C14" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="D14" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="E14" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="F14" t="s">
         <v>131</v>
@@ -3309,19 +3342,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="D15" t="s">
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -3329,7 +3362,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
@@ -3341,7 +3374,7 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="F16" t="s">
         <v>25</v>
@@ -3349,7 +3382,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -3361,7 +3394,7 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="F17" t="s">
         <v>25</v>
@@ -3369,7 +3402,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -3381,7 +3414,7 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
@@ -3389,19 +3422,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="B19" t="s">
         <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="D19" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="E19" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>
@@ -3409,19 +3442,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="D20" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="E20" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
@@ -3435,13 +3468,13 @@
         <v>223</v>
       </c>
       <c r="C21" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="D21" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="E21" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
@@ -3455,7 +3488,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
@@ -3475,13 +3508,13 @@
         <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="F23" t="s">
         <v>25</v>
@@ -3498,7 +3531,7 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="E24" t="s">
         <v>25</v>
@@ -3515,13 +3548,13 @@
         <v>223</v>
       </c>
       <c r="C25" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D25" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="E25" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="F25" t="s">
         <v>25</v>
@@ -3535,13 +3568,13 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="F26" t="s">
         <v>131</v>
@@ -3555,13 +3588,13 @@
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="D27" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="E27" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="F27" t="s">
         <v>25</v>
@@ -3575,13 +3608,13 @@
         <v>264</v>
       </c>
       <c r="C28" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="D28" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E28" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="F28" t="s">
         <v>131</v>
@@ -3595,13 +3628,13 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D29" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="E29" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="F29" t="s">
         <v>25</v>
@@ -3621,7 +3654,7 @@
         <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="F30" t="s">
         <v>25</v>
@@ -3632,19 +3665,19 @@
         <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="C31" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="D31" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="E31" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F31" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32">
@@ -3652,19 +3685,19 @@
         <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="C32" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="D32" t="s">
         <v>270</v>
       </c>
       <c r="E32" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="F32" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="33">
@@ -3672,16 +3705,16 @@
         <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="C33" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="D33" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="E33" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="F33" t="e">
         <v>#N/A</v>
@@ -3726,19 +3759,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="C2" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="D2" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="E2" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="F2" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3">
@@ -3749,16 +3782,16 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="D3" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="E3" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="F3" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4">
@@ -3766,19 +3799,19 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="C4" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D4" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="E4" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="F4" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5">
@@ -3795,7 +3828,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -3809,16 +3842,16 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="D6" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7">
@@ -3829,7 +3862,7 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -3849,7 +3882,7 @@
         <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -3869,7 +3902,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -3886,19 +3919,19 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="C10" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="D10" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="E10" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="F10" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11">
@@ -3909,13 +3942,13 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -3929,13 +3962,13 @@
         <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -3946,19 +3979,19 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="C13" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="D13" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="E13" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="F13" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14">
@@ -3969,16 +4002,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="F14" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15">
@@ -3995,7 +4028,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -4009,16 +4042,16 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="D16" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="E16" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="F16" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17">
@@ -4032,13 +4065,13 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
+        <v>487</v>
+      </c>
+      <c r="E17" t="s">
+        <v>501</v>
+      </c>
+      <c r="F17" t="s">
         <v>480</v>
-      </c>
-      <c r="E17" t="s">
-        <v>494</v>
-      </c>
-      <c r="F17" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="18">
@@ -4049,7 +4082,7 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="D18" t="s">
         <v>25</v>
@@ -4075,10 +4108,10 @@
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="F19" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20">
@@ -4089,16 +4122,16 @@
         <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="D20" t="s">
+        <v>487</v>
+      </c>
+      <c r="E20" t="s">
+        <v>503</v>
+      </c>
+      <c r="F20" t="s">
         <v>480</v>
-      </c>
-      <c r="E20" t="s">
-        <v>496</v>
-      </c>
-      <c r="F20" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="21">
@@ -4109,13 +4142,13 @@
         <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="D21" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="E21" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
@@ -4129,13 +4162,13 @@
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="D22" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="E22" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -4146,19 +4179,19 @@
         <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="C23" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="D23" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="E23" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="F23" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="24">
@@ -4166,19 +4199,19 @@
         <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="C24" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="D24" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="E24" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="F24" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
     </row>
     <row r="25">
@@ -4186,19 +4219,19 @@
         <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C25" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D25" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="E25" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="F25" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
     </row>
     <row r="26">
@@ -4206,19 +4239,19 @@
         <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="C26" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="D26" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="E26" t="s">
         <v>276</v>
       </c>
       <c r="F26" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -4257,16 +4290,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="C2" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="D2" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="E2" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3">
@@ -4283,7 +4316,7 @@
         <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4">
@@ -4291,7 +4324,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="C4" t="s">
         <v>134</v>
@@ -4300,7 +4333,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5">
@@ -4368,7 +4401,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>522</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9">
@@ -4385,7 +4418,7 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>523</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10">
@@ -4402,7 +4435,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11">
@@ -4436,7 +4469,7 @@
         <v>131</v>
       </c>
       <c r="E12" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13">
@@ -4453,12 +4486,12 @@
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>522</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="B14" t="s">
         <v>170</v>
@@ -4470,15 +4503,15 @@
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="B15" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="C15" t="s">
         <v>130</v>
@@ -4487,15 +4520,15 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B16" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="C16" t="s">
         <v>143</v>
@@ -4504,12 +4537,12 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -4521,7 +4554,7 @@
         <v>131</v>
       </c>
       <c r="E17" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18">
@@ -4538,7 +4571,7 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
     </row>
     <row r="19">
@@ -4546,7 +4579,7 @@
         <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="C19" t="s">
         <v>143</v>
@@ -4555,7 +4588,7 @@
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>534</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20">
@@ -4580,7 +4613,7 @@
         <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="C21" t="s">
         <v>148</v>
@@ -4589,7 +4622,7 @@
         <v>131</v>
       </c>
       <c r="E21" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="22">
@@ -4606,7 +4639,7 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23">
@@ -4623,7 +4656,7 @@
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>522</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24">
@@ -4640,7 +4673,7 @@
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25">
@@ -4657,7 +4690,7 @@
         <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
     </row>
     <row r="26">
@@ -4674,7 +4707,7 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>522</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27">
@@ -4682,16 +4715,16 @@
         <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C27" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="D27" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E27" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="28">
@@ -4699,16 +4732,16 @@
         <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C28" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="D28" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="E28" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="29">
@@ -4716,16 +4749,16 @@
         <v>120</v>
       </c>
       <c r="B29" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C29" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="D29" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="E29" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -4767,16 +4800,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C2" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D2" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="E2" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="F2" t="s">
         <v>190</v>
@@ -4790,13 +4823,13 @@
         <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D3" t="s">
         <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -4810,13 +4843,13 @@
         <v>169</v>
       </c>
       <c r="C4" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D4" t="s">
         <v>150</v>
       </c>
       <c r="E4" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="F4" t="s">
         <v>167</v>
@@ -4836,7 +4869,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -4890,7 +4923,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>294</v>
+        <v>562</v>
       </c>
       <c r="D8" t="s">
         <v>139</v>
@@ -4930,13 +4963,13 @@
         <v>175</v>
       </c>
       <c r="C10" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="D10" t="s">
         <v>139</v>
       </c>
       <c r="E10" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="F10" t="s">
         <v>176</v>
@@ -4950,13 +4983,13 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D11" t="s">
         <v>139</v>
       </c>
       <c r="E11" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -4970,7 +5003,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>289</v>
+        <v>566</v>
       </c>
       <c r="D12" t="s">
         <v>147</v>
@@ -4990,13 +5023,13 @@
         <v>197</v>
       </c>
       <c r="C13" t="s">
-        <v>295</v>
+        <v>567</v>
       </c>
       <c r="D13" t="s">
         <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="F13" t="s">
         <v>167</v>
@@ -5010,13 +5043,13 @@
         <v>175</v>
       </c>
       <c r="C14" t="s">
-        <v>293</v>
+        <v>569</v>
       </c>
       <c r="D14" t="s">
         <v>139</v>
       </c>
       <c r="E14" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
@@ -5024,7 +5057,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="B15" t="s">
         <v>175</v>
@@ -5036,7 +5069,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -5044,19 +5077,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="B16" t="s">
         <v>197</v>
       </c>
       <c r="C16" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="D16" t="s">
         <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="F16" t="s">
         <v>167</v>
@@ -5064,19 +5097,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>293</v>
+        <v>569</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="F17" t="s">
         <v>25</v>
@@ -5084,7 +5117,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -5096,7 +5129,7 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
@@ -5104,19 +5137,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>294</v>
+        <v>562</v>
       </c>
       <c r="D19" t="s">
         <v>139</v>
       </c>
       <c r="E19" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>
@@ -5130,13 +5163,13 @@
         <v>169</v>
       </c>
       <c r="C20" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D20" t="s">
         <v>139</v>
       </c>
       <c r="E20" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
@@ -5150,13 +5183,13 @@
         <v>173</v>
       </c>
       <c r="C21" t="s">
-        <v>293</v>
+        <v>569</v>
       </c>
       <c r="D21" t="s">
         <v>147</v>
       </c>
       <c r="E21" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="F21" t="s">
         <v>176</v>
@@ -5170,13 +5203,13 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>295</v>
+        <v>567</v>
       </c>
       <c r="D22" t="s">
         <v>139</v>
       </c>
       <c r="E22" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -5196,7 +5229,7 @@
         <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="F23" t="s">
         <v>25</v>
@@ -5210,13 +5243,13 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>293</v>
+        <v>569</v>
       </c>
       <c r="D24" t="s">
         <v>139</v>
       </c>
       <c r="E24" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="F24" t="s">
         <v>176</v>
@@ -5236,7 +5269,7 @@
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="F25" t="s">
         <v>25</v>
@@ -5270,13 +5303,13 @@
         <v>175</v>
       </c>
       <c r="C27" t="s">
-        <v>293</v>
+        <v>569</v>
       </c>
       <c r="D27" t="s">
         <v>147</v>
       </c>
       <c r="E27" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="F27" t="s">
         <v>25</v>
@@ -5290,13 +5323,13 @@
         <v>173</v>
       </c>
       <c r="C28" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="D28" t="s">
         <v>129</v>
       </c>
       <c r="E28" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="F28" t="s">
         <v>176</v>
@@ -5310,13 +5343,13 @@
         <v>173</v>
       </c>
       <c r="C29" t="s">
-        <v>287</v>
+        <v>584</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="F29" t="s">
         <v>176</v>
@@ -5330,13 +5363,13 @@
         <v>175</v>
       </c>
       <c r="C30" t="s">
-        <v>295</v>
+        <v>567</v>
       </c>
       <c r="D30" t="s">
         <v>147</v>
       </c>
       <c r="E30" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="F30" t="s">
         <v>25</v>
@@ -5347,19 +5380,19 @@
         <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="C31" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="D31" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="E31" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="F31" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
     </row>
     <row r="32">
@@ -5367,19 +5400,19 @@
         <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="C32" t="s">
-        <v>406</v>
+        <v>592</v>
       </c>
       <c r="D32" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="E32" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="F32" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
     </row>
     <row r="33">
@@ -5387,19 +5420,19 @@
         <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="C33" t="s">
         <v>278</v>
       </c>
       <c r="D33" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="E33" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="F33" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -5441,7 +5474,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="C2" t="s">
         <v>65</v>
@@ -5464,13 +5497,13 @@
         <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>399</v>
+        <v>601</v>
       </c>
       <c r="D3" t="s">
         <v>227</v>
       </c>
       <c r="E3" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="F3" t="s">
         <v>176</v>
@@ -5484,13 +5517,13 @@
         <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>399</v>
+        <v>601</v>
       </c>
       <c r="D4" t="s">
         <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="F4" t="s">
         <v>176</v>
@@ -5521,7 +5554,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -5590,7 +5623,7 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -5621,7 +5654,7 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="C11" t="s">
         <v>175</v>
@@ -5630,7 +5663,7 @@
         <v>245</v>
       </c>
       <c r="E11" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="F11" t="s">
         <v>167</v>
@@ -5650,7 +5683,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -5670,7 +5703,7 @@
         <v>245</v>
       </c>
       <c r="E13" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -5690,7 +5723,7 @@
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="F14" t="s">
         <v>176</v>
@@ -5710,7 +5743,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -5730,7 +5763,7 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="F16" t="s">
         <v>176</v>
@@ -5750,7 +5783,7 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="F17" t="s">
         <v>25</v>
@@ -5770,7 +5803,7 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
@@ -5790,7 +5823,7 @@
         <v>245</v>
       </c>
       <c r="E19" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>
@@ -5810,7 +5843,7 @@
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="F20" t="s">
         <v>167</v>
@@ -5830,7 +5863,7 @@
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
@@ -5841,19 +5874,19 @@
         <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="C22" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="D22" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="E22" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="F22" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="23">
@@ -5867,10 +5900,10 @@
         <v>#N/A</v>
       </c>
       <c r="D23" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="E23" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="F23" t="e">
         <v>#N/A</v>
@@ -5881,19 +5914,19 @@
         <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="C24" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="D24" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="E24" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="F24" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -5932,16 +5965,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="C2" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="D2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="E2" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
     </row>
     <row r="3">
@@ -6142,7 +6175,7 @@
         <v>227</v>
       </c>
       <c r="D14" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -6204,16 +6237,16 @@
         <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="C18" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="D18" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="E18" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
     </row>
     <row r="19">
@@ -6221,13 +6254,13 @@
         <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="C19" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="D19" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="E19" t="e">
         <v>#N/A</v>
@@ -6241,7 +6274,7 @@
         <v>#N/A</v>
       </c>
       <c r="C20" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="D20" t="e">
         <v>#N/A</v>
@@ -6289,19 +6322,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="C2" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="D2" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="E2" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="F2" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3">
@@ -6309,7 +6342,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>227</v>
+        <v>348</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -6318,7 +6351,7 @@
         <v>176</v>
       </c>
       <c r="E3" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -6329,16 +6362,16 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>347</v>
       </c>
       <c r="C4" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="F4" t="s">
         <v>131</v>
@@ -6352,13 +6385,13 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="D5" t="s">
         <v>176</v>
       </c>
       <c r="E5" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -6389,7 +6422,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>348</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -6409,7 +6442,7 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>347</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -6432,13 +6465,13 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="D9" t="s">
         <v>176</v>
       </c>
       <c r="E9" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -6452,13 +6485,13 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -6472,13 +6505,13 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -6489,16 +6522,16 @@
         <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>245</v>
+        <v>292</v>
       </c>
       <c r="C12" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D12" t="s">
         <v>176</v>
       </c>
       <c r="E12" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="F12" t="s">
         <v>131</v>
@@ -6506,19 +6539,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="D13" t="s">
         <v>176</v>
       </c>
       <c r="E13" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -6529,16 +6562,16 @@
         <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>245</v>
+        <v>348</v>
       </c>
       <c r="C14" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="D14" t="s">
         <v>167</v>
       </c>
       <c r="E14" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="F14" t="s">
         <v>131</v>
@@ -6558,7 +6591,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -6566,10 +6599,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>355</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>347</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
@@ -6578,15 +6611,15 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>632</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -6598,27 +6631,27 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>245</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>490</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
@@ -6626,47 +6659,47 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
-        <v>638</v>
+        <v>292</v>
       </c>
       <c r="C19" t="s">
-        <v>639</v>
+        <v>497</v>
       </c>
       <c r="D19" t="s">
-        <v>640</v>
+        <v>167</v>
       </c>
       <c r="E19" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="F19" t="s">
-        <v>642</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D20" t="e">
-        <v>#N/A</v>
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>649</v>
+      </c>
+      <c r="C20" t="s">
+        <v>650</v>
+      </c>
+      <c r="D20" t="s">
+        <v>651</v>
       </c>
       <c r="E20" t="s">
-        <v>643</v>
-      </c>
-      <c r="F20" t="e">
-        <v>#N/A</v>
+        <v>652</v>
+      </c>
+      <c r="F20" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B21" t="e">
         <v>#N/A</v>
@@ -6678,9 +6711,29 @@
         <v>#N/A</v>
       </c>
       <c r="E21" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="F21" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E22" t="s">
+        <v>655</v>
+      </c>
+      <c r="F22" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -8702,7 +8755,7 @@
         <v>131</v>
       </c>
       <c r="E16" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F16" t="s">
         <v>288</v>
@@ -8762,7 +8815,7 @@
         <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F19" t="s">
         <v>288</v>
@@ -8782,7 +8835,7 @@
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F20" t="s">
         <v>288</v>
@@ -8813,19 +8866,19 @@
         <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C22" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E22" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F22" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23">
@@ -8836,13 +8889,13 @@
         <v>#N/A</v>
       </c>
       <c r="C23" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D23" t="e">
         <v>#N/A</v>
       </c>
       <c r="E23" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F23" t="e">
         <v>#N/A</v>
@@ -8856,13 +8909,13 @@
         <v>#N/A</v>
       </c>
       <c r="C24" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D24" t="e">
         <v>#N/A</v>
       </c>
       <c r="E24" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F24" t="e">
         <v>#N/A</v>
@@ -8907,19 +8960,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F2" t="s">
         <v>307</v>
-      </c>
-      <c r="F2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="3">
@@ -8936,7 +8989,7 @@
         <v>227</v>
       </c>
       <c r="E3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F3" t="s">
         <v>231</v>
@@ -8956,7 +9009,7 @@
         <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F4" t="s">
         <v>227</v>
@@ -9016,7 +9069,7 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F7" t="s">
         <v>245</v>
@@ -9036,7 +9089,7 @@
         <v>227</v>
       </c>
       <c r="E8" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -9056,7 +9109,7 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -9076,7 +9129,7 @@
         <v>245</v>
       </c>
       <c r="E10" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F10" t="s">
         <v>245</v>
@@ -9096,7 +9149,7 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -9104,7 +9157,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B12" t="s">
         <v>231</v>
@@ -9124,7 +9177,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -9136,7 +9189,7 @@
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F13" t="s">
         <v>231</v>
@@ -9144,7 +9197,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -9156,7 +9209,7 @@
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F14" t="s">
         <v>231</v>
@@ -9164,7 +9217,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -9176,7 +9229,7 @@
         <v>231</v>
       </c>
       <c r="E15" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -9184,7 +9237,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B16" t="s">
         <v>231</v>
@@ -9204,7 +9257,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -9224,7 +9277,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B18" t="s">
         <v>231</v>
@@ -9236,7 +9289,7 @@
         <v>231</v>
       </c>
       <c r="E18" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F18" t="s">
         <v>231</v>
@@ -9256,7 +9309,7 @@
         <v>231</v>
       </c>
       <c r="E19" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F19" t="s">
         <v>231</v>
@@ -9276,7 +9329,7 @@
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
@@ -9296,7 +9349,7 @@
         <v>231</v>
       </c>
       <c r="E21" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
@@ -9316,7 +9369,7 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -9336,7 +9389,7 @@
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F23" t="s">
         <v>231</v>
@@ -9356,7 +9409,7 @@
         <v>231</v>
       </c>
       <c r="E24" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F24" t="s">
         <v>231</v>
@@ -9376,7 +9429,7 @@
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F25" t="s">
         <v>25</v>
@@ -9396,7 +9449,7 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F26" t="s">
         <v>25</v>
@@ -9416,7 +9469,7 @@
         <v>245</v>
       </c>
       <c r="E27" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F27" t="s">
         <v>245</v>
@@ -9436,7 +9489,7 @@
         <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F28" t="s">
         <v>25</v>
@@ -9456,7 +9509,7 @@
         <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F29" t="s">
         <v>25</v>
@@ -9467,19 +9520,19 @@
         <v>108</v>
       </c>
       <c r="B30" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C30" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D30" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E30" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F30" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31">
@@ -9487,19 +9540,19 @@
         <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C31" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D31" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E31" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F31" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32">
@@ -9507,19 +9560,19 @@
         <v>120</v>
       </c>
       <c r="B32" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C32" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D32" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E32" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F32" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -9558,16 +9611,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3">
@@ -9578,7 +9631,7 @@
         <v>176</v>
       </c>
       <c r="C3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -9595,13 +9648,13 @@
         <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D4" t="s">
         <v>292</v>
       </c>
       <c r="E4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5">
@@ -9649,7 +9702,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
@@ -9663,10 +9716,10 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D8" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E8" t="s">
         <v>239</v>
@@ -9680,13 +9733,13 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10">
@@ -9697,7 +9750,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -9714,35 +9767,35 @@
         <v>167</v>
       </c>
       <c r="C11" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D11" t="s">
         <v>292</v>
       </c>
       <c r="E11" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -9751,7 +9804,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E13" t="s">
         <v>236</v>
@@ -9759,7 +9812,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B14" t="s">
         <v>167</v>
@@ -9776,16 +9829,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D15" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E15" t="s">
         <v>233</v>
@@ -9799,10 +9852,10 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D16" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E16" t="s">
         <v>229</v>
@@ -9816,13 +9869,13 @@
         <v>176</v>
       </c>
       <c r="C17" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D17" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E17" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18">
@@ -9867,7 +9920,7 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -9884,7 +9937,7 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
@@ -9941,7 +9994,7 @@
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25">
@@ -9949,16 +10002,16 @@
         <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C25" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D25" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E25" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26">
@@ -9966,16 +10019,16 @@
         <v>114</v>
       </c>
       <c r="B26" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C26" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D26" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E26" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27">
@@ -9983,16 +10036,16 @@
         <v>120</v>
       </c>
       <c r="B27" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C27" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D27" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E27" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -10034,19 +10087,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3">
@@ -10063,10 +10116,10 @@
         <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4">
@@ -10083,10 +10136,10 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5">
@@ -10106,7 +10159,7 @@
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6">
@@ -10143,7 +10196,7 @@
         <v>131</v>
       </c>
       <c r="E7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F7" t="s">
         <v>288</v>
@@ -10163,10 +10216,10 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F8" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9">
@@ -10183,7 +10236,7 @@
         <v>131</v>
       </c>
       <c r="E9" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -10194,7 +10247,7 @@
         <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C10" t="s">
         <v>140</v>
@@ -10203,7 +10256,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F10" t="s">
         <v>292</v>
@@ -10243,10 +10296,10 @@
         <v>131</v>
       </c>
       <c r="E12" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F12" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13">
@@ -10263,10 +10316,10 @@
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F13" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14">
@@ -10303,10 +10356,10 @@
         <v>131</v>
       </c>
       <c r="E15" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F15" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16">
@@ -10323,10 +10376,10 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F16" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17">
@@ -10343,7 +10396,7 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F17" t="s">
         <v>25</v>
@@ -10354,16 +10407,16 @@
         <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C18" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D18" t="s">
         <v>206</v>
       </c>
       <c r="E18" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F18" t="s">
         <v>109</v>
@@ -10377,13 +10430,13 @@
         <v>#N/A</v>
       </c>
       <c r="C19" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D19" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E19" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F19" t="e">
         <v>#N/A</v>
@@ -10394,19 +10447,19 @@
         <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C20" t="s">
         <v>111</v>
       </c>
       <c r="D20" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E20" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F20" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -10445,16 +10498,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3">
@@ -10462,16 +10515,16 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>261</v>
       </c>
       <c r="D3" t="s">
         <v>167</v>
       </c>
       <c r="E3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4">
@@ -10479,16 +10532,16 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>352</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5">
@@ -10513,7 +10566,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -10530,7 +10583,7 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -10547,16 +10600,16 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>398</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9">
@@ -10567,13 +10620,13 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10">
@@ -10581,16 +10634,16 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>401</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>312</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11">
@@ -10598,16 +10651,16 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
-        <v>223</v>
+        <v>352</v>
       </c>
       <c r="D11" t="s">
         <v>167</v>
       </c>
       <c r="E11" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12">
@@ -10618,13 +10671,13 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>233</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13">
@@ -10635,13 +10688,13 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>239</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>315</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14">
@@ -10649,16 +10702,16 @@
         <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>399</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>319</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15">
@@ -10669,13 +10722,13 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>239</v>
       </c>
       <c r="D15" t="s">
         <v>176</v>
       </c>
       <c r="E15" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16">
@@ -10683,16 +10736,16 @@
         <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>239</v>
       </c>
       <c r="D16" t="s">
         <v>176</v>
       </c>
       <c r="E16" t="s">
-        <v>326</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17">
@@ -10700,16 +10753,16 @@
         <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18">
@@ -10726,7 +10779,7 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>312</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19">
@@ -10734,16 +10787,16 @@
         <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20">
@@ -10751,16 +10804,16 @@
         <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>229</v>
       </c>
       <c r="D20" t="s">
         <v>167</v>
       </c>
       <c r="E20" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21">
@@ -10768,16 +10821,16 @@
         <v>103</v>
       </c>
       <c r="B21" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>352</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22">
@@ -10794,7 +10847,7 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>310</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23">
@@ -10802,16 +10855,16 @@
         <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="C23" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="D23" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="E23" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24">
@@ -10819,16 +10872,16 @@
         <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="C24" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="D24" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="E24" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25">
@@ -10836,16 +10889,16 @@
         <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="C25" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="D25" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="E25" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
+++ b/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
@@ -200,6 +200,15 @@
     <t xml:space="preserve">1 (11.1%)</t>
   </si>
   <si>
+    <t xml:space="preserve">LGG, BRAF V600E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (6.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 (12.4%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LGG, BRAF fusion</t>
   </si>
   <si>
@@ -212,15 +221,6 @@
     <t xml:space="preserve">115 (41.8%)</t>
   </si>
   <si>
-    <t xml:space="preserve">LGG, BRAF V600E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (6.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34 (12.4%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">LGG, Other alteration</t>
   </si>
   <si>
@@ -602,18 +602,18 @@
     <t xml:space="preserve">2 (2.2%)</t>
   </si>
   <si>
+    <t xml:space="preserve">GNG/GNT, BRAF V600E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 (23.7%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">GNG/GNT, BRAF fusion</t>
   </si>
   <si>
     <t xml:space="preserve">5 (5.4%)</t>
   </si>
   <si>
-    <t xml:space="preserve">GNG/GNT, BRAF V600E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 (23.7%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">GNG/GNT, Other alteration</t>
   </si>
   <si>
@@ -1634,16 +1634,16 @@
     <t xml:space="preserve">8 (30.8%)</t>
   </si>
   <si>
+    <t xml:space="preserve">ATRT, TYR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (23.1%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATRT, To be classified</t>
   </si>
   <si>
     <t xml:space="preserve">5 (19.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATRT, TYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (23.1%)</t>
   </si>
   <si>
     <t xml:space="preserve">9 (34.6%)</t>
@@ -2611,39 +2611,39 @@
         <v>57</v>
       </c>
       <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
         <v>58</v>
       </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
       <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
         <v>59</v>
       </c>
-      <c r="E15" t="s">
-        <v>60</v>
-      </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
         <v>61</v>
       </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
       <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
         <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
       </c>
       <c r="E16" t="s">
         <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
@@ -2677,7 +2677,7 @@
         <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
         <v>70</v>
@@ -2737,7 +2737,7 @@
         <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
         <v>78</v>
@@ -2754,7 +2754,7 @@
         <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
@@ -2874,7 +2874,7 @@
         <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
         <v>35</v>
@@ -3425,7 +3425,7 @@
         <v>450</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
         <v>437</v>
@@ -4528,13 +4528,13 @@
         <v>535</v>
       </c>
       <c r="B16" t="s">
-        <v>527</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="E16" t="s">
         <v>536</v>
@@ -4545,13 +4545,13 @@
         <v>537</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>527</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
         <v>538</v>
@@ -7458,19 +7458,19 @@
         <v>191</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="E15" t="s">
         <v>192</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
@@ -7478,19 +7478,19 @@
         <v>193</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="D16" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
         <v>194</v>
       </c>
       <c r="F16" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
@@ -7607,7 +7607,7 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F22" t="s">
         <v>175</v>
@@ -8152,7 +8152,7 @@
         <v>253</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
         <v>251</v>
@@ -8332,7 +8332,7 @@
         <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
         <v>266</v>

--- a/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
+++ b/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="651">
   <si>
     <t xml:space="preserve">Term</t>
   </si>
@@ -1454,517 +1454,502 @@
     <t xml:space="preserve">6.88</t>
   </si>
   <si>
-    <t xml:space="preserve">9 (8.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27 (25.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (4.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59 (56.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (44.4%)</t>
+    <t xml:space="preserve">9 (8.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 (25.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (5.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61 (56%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (4.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (42.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 (45.9%)</t>
   </si>
   <si>
     <t xml:space="preserve">1 (20%)</t>
   </si>
   <si>
+    <t xml:space="preserve">3 (33.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (57.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 (49.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (80%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (4.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (7.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (40%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (3.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (60.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (24.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (60%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (17.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46 (75.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (1.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (66.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (21.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (23%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 (96.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 (70.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (26.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 (31.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (10.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (3.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (13.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (53.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 (52.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (22.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (20.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (2.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 (54.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (53.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (27.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (46.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 (80.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 (96.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATRT, MYC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (26.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATRT, SHH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (30.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATRT, TYR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (23.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATRT, To be classified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (19.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (34.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (7.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (61.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (15.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59 (68.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (2.3%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">28 (47.5%)</t>
   </si>
   <si>
-    <t xml:space="preserve">3 (33.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (55.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (80%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (5.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (7.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (40%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (3.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 (63%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (25.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (60%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (14.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44 (74.6%)</t>
+    <t xml:space="preserve">30 (50.8%)</t>
   </si>
   <si>
     <t xml:space="preserve">1 (1.7%)</t>
   </si>
   <si>
-    <t xml:space="preserve">6 (66.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (18.5%)</t>
+    <t xml:space="preserve">7 (11.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52 (88.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53 (89.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (10.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHG, H3 G35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (6.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HGG, H3 WT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47 (79.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HGG, IDH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (8.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HGG, PXA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IHG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (3.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 (59.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (27.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 (40.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (38.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (28.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (23.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (24.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (55%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (45%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (90%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 (95%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (15%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (10%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (70%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (16.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (61.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (5.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (6.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (7.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (3.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52 (81.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (32.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 (42.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (3.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 (53.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown...12</t>
   </si>
   <si>
     <t xml:space="preserve">5 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (23.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 (96.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41 (69.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (27.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (25.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 (32.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (11.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (3.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (13.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (51.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 (50.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (22.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (20.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (2.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 (54.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (53.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (27.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (46.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 (80.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 (96.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATRT, MYC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (26.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATRT, SHH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (30.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATRT, TYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (23.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATRT, To be classified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (19.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (34.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (7.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (61.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (6.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (15.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (7.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61 (67.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 (45.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 (52.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (1.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (7.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (42.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (11.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54 (88.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (64.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (21.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55 (90.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (14.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (9.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHG, H3 G35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (6.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HGG, H3 WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (78.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48 (78.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HGG, IDH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HGG, PXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IHG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (3.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35 (57.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (26.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (28.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 (39.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (35.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 (27.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (24.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (55%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (45%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (90%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 (95%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (15%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (10%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (70%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (16.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (61.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (5.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (6.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (7.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (3.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52 (81.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 (32.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 (42.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (3.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 (53.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unknown...12</t>
   </si>
   <si>
     <t xml:space="preserve">49 (94.2%)</t>
@@ -3771,7 +3756,7 @@
         <v>478</v>
       </c>
       <c r="F2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3">
@@ -3782,16 +3767,16 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D3" t="s">
-        <v>480</v>
+        <v>173</v>
       </c>
       <c r="E3" t="s">
         <v>481</v>
       </c>
       <c r="F3" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4">
@@ -3799,19 +3784,19 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D4" t="s">
-        <v>484</v>
+        <v>169</v>
       </c>
       <c r="E4" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="F4" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5">
@@ -3828,7 +3813,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -3842,16 +3827,16 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D6" t="s">
-        <v>484</v>
+        <v>197</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7">
@@ -3862,7 +3847,7 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -3882,7 +3867,7 @@
         <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -3902,7 +3887,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -3919,19 +3904,19 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C10" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D10" t="s">
-        <v>480</v>
+        <v>175</v>
       </c>
       <c r="E10" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F10" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11">
@@ -3942,13 +3927,13 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -3962,13 +3947,13 @@
         <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -3979,19 +3964,19 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
+        <v>497</v>
+      </c>
+      <c r="C13" t="s">
+        <v>494</v>
+      </c>
+      <c r="D13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" t="s">
         <v>495</v>
       </c>
-      <c r="C13" t="s">
-        <v>496</v>
-      </c>
-      <c r="D13" t="s">
-        <v>497</v>
-      </c>
-      <c r="E13" t="s">
-        <v>493</v>
-      </c>
       <c r="F13" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14">
@@ -4002,16 +3987,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F14" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15">
@@ -4028,7 +4013,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -4042,16 +4027,16 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D16" t="s">
-        <v>491</v>
+        <v>169</v>
       </c>
       <c r="E16" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F16" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17">
@@ -4065,13 +4050,13 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>487</v>
+        <v>173</v>
       </c>
       <c r="E17" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F17" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="18">
@@ -4082,7 +4067,7 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D18" t="s">
         <v>25</v>
@@ -4108,10 +4093,10 @@
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F19" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20">
@@ -4122,16 +4107,16 @@
         <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D20" t="s">
-        <v>487</v>
+        <v>173</v>
       </c>
       <c r="E20" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F20" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21">
@@ -4142,13 +4127,13 @@
         <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D21" t="s">
-        <v>480</v>
+        <v>175</v>
       </c>
       <c r="E21" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
@@ -4162,13 +4147,13 @@
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D22" t="s">
-        <v>480</v>
+        <v>175</v>
       </c>
       <c r="E22" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -4179,19 +4164,19 @@
         <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C23" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D23" t="s">
-        <v>480</v>
+        <v>173</v>
       </c>
       <c r="E23" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F23" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24">
@@ -4199,13 +4184,13 @@
         <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C24" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D24" t="s">
-        <v>511</v>
+        <v>471</v>
       </c>
       <c r="E24" t="s">
         <v>512</v>
@@ -4806,13 +4791,13 @@
         <v>555</v>
       </c>
       <c r="D2" t="s">
+        <v>554</v>
+      </c>
+      <c r="E2" t="s">
         <v>556</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>557</v>
-      </c>
-      <c r="F2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="3">
@@ -4823,13 +4808,13 @@
         <v>173</v>
       </c>
       <c r="C3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" t="s">
         <v>558</v>
-      </c>
-      <c r="D3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" t="s">
-        <v>559</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -4843,13 +4828,13 @@
         <v>169</v>
       </c>
       <c r="C4" t="s">
-        <v>558</v>
+        <v>225</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="E4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F4" t="s">
         <v>167</v>
@@ -4869,7 +4854,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -4886,7 +4871,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
@@ -4923,10 +4908,10 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>562</v>
+        <v>233</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
@@ -4946,7 +4931,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="E9" t="s">
         <v>25</v>
@@ -4963,13 +4948,13 @@
         <v>175</v>
       </c>
       <c r="C10" t="s">
-        <v>563</v>
+        <v>225</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="E10" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F10" t="s">
         <v>176</v>
@@ -4983,13 +4968,13 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>558</v>
+        <v>225</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="E11" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -5003,10 +4988,10 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>566</v>
+        <v>261</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
@@ -5023,13 +5008,13 @@
         <v>197</v>
       </c>
       <c r="C13" t="s">
-        <v>567</v>
+        <v>239</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>563</v>
       </c>
       <c r="E13" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="F13" t="s">
         <v>167</v>
@@ -5043,13 +5028,13 @@
         <v>175</v>
       </c>
       <c r="C14" t="s">
-        <v>569</v>
+        <v>233</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="E14" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
@@ -5057,7 +5042,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B15" t="s">
         <v>175</v>
@@ -5069,7 +5054,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -5077,19 +5062,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B16" t="s">
         <v>197</v>
       </c>
       <c r="C16" t="s">
-        <v>574</v>
+        <v>349</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="E16" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F16" t="s">
         <v>167</v>
@@ -5097,19 +5082,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>569</v>
+        <v>236</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F17" t="s">
         <v>25</v>
@@ -5117,7 +5102,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -5129,7 +5114,7 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
@@ -5137,19 +5122,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>562</v>
+        <v>233</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="E19" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>
@@ -5163,13 +5148,13 @@
         <v>169</v>
       </c>
       <c r="C20" t="s">
-        <v>558</v>
+        <v>229</v>
       </c>
       <c r="D20" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="E20" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
@@ -5183,13 +5168,13 @@
         <v>173</v>
       </c>
       <c r="C21" t="s">
-        <v>569</v>
+        <v>233</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="E21" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="F21" t="s">
         <v>176</v>
@@ -5203,13 +5188,13 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>567</v>
+        <v>239</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="E22" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -5226,10 +5211,10 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="E23" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F23" t="s">
         <v>25</v>
@@ -5243,13 +5228,13 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>569</v>
+        <v>236</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="E24" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F24" t="s">
         <v>176</v>
@@ -5269,7 +5254,7 @@
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F25" t="s">
         <v>25</v>
@@ -5286,7 +5271,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="E26" t="s">
         <v>25</v>
@@ -5303,13 +5288,13 @@
         <v>175</v>
       </c>
       <c r="C27" t="s">
-        <v>569</v>
+        <v>236</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="E27" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="F27" t="s">
         <v>25</v>
@@ -5323,13 +5308,13 @@
         <v>173</v>
       </c>
       <c r="C28" t="s">
-        <v>582</v>
+        <v>352</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>563</v>
       </c>
       <c r="E28" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F28" t="s">
         <v>176</v>
@@ -5343,13 +5328,13 @@
         <v>173</v>
       </c>
       <c r="C29" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="F29" t="s">
         <v>176</v>
@@ -5363,13 +5348,13 @@
         <v>175</v>
       </c>
       <c r="C30" t="s">
-        <v>567</v>
+        <v>236</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="E30" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F30" t="s">
         <v>25</v>
@@ -5380,19 +5365,19 @@
         <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C31" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="D31" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="E31" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F31" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="32">
@@ -5400,19 +5385,19 @@
         <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C32" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D32" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="E32" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="F32" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="33">
@@ -5420,19 +5405,19 @@
         <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C33" t="s">
         <v>278</v>
       </c>
       <c r="D33" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="E33" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="F33" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -5474,7 +5459,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C2" t="s">
         <v>65</v>
@@ -5497,13 +5482,13 @@
         <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>601</v>
+        <v>563</v>
       </c>
       <c r="D3" t="s">
         <v>227</v>
       </c>
       <c r="E3" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="F3" t="s">
         <v>176</v>
@@ -5517,13 +5502,13 @@
         <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>601</v>
+        <v>563</v>
       </c>
       <c r="D4" t="s">
         <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F4" t="s">
         <v>176</v>
@@ -5554,7 +5539,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -5623,7 +5608,7 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -5654,7 +5639,7 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C11" t="s">
         <v>175</v>
@@ -5663,7 +5648,7 @@
         <v>245</v>
       </c>
       <c r="E11" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="F11" t="s">
         <v>167</v>
@@ -5683,7 +5668,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -5703,7 +5688,7 @@
         <v>245</v>
       </c>
       <c r="E13" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -5723,7 +5708,7 @@
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="F14" t="s">
         <v>176</v>
@@ -5743,7 +5728,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -5763,7 +5748,7 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="F16" t="s">
         <v>176</v>
@@ -5783,7 +5768,7 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F17" t="s">
         <v>25</v>
@@ -5803,7 +5788,7 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
@@ -5823,7 +5808,7 @@
         <v>245</v>
       </c>
       <c r="E19" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>
@@ -5843,7 +5828,7 @@
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="F20" t="s">
         <v>167</v>
@@ -5863,7 +5848,7 @@
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
@@ -5874,19 +5859,19 @@
         <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C22" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D22" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="E22" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="F22" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="23">
@@ -5900,10 +5885,10 @@
         <v>#N/A</v>
       </c>
       <c r="D23" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="E23" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F23" t="e">
         <v>#N/A</v>
@@ -5914,19 +5899,19 @@
         <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="C24" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="D24" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E24" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="F24" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -5965,16 +5950,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="C2" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D2" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E2" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3">
@@ -6237,16 +6222,16 @@
         <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="C18" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="D18" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="E18" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="19">
@@ -6254,13 +6239,13 @@
         <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C19" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D19" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="E19" t="e">
         <v>#N/A</v>
@@ -6274,7 +6259,7 @@
         <v>#N/A</v>
       </c>
       <c r="C20" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D20" t="e">
         <v>#N/A</v>
@@ -6322,19 +6307,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C2" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D2" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="E2" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="F2" t="s">
-        <v>561</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3">
@@ -6351,7 +6336,7 @@
         <v>176</v>
       </c>
       <c r="E3" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -6365,13 +6350,13 @@
         <v>347</v>
       </c>
       <c r="C4" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="F4" t="s">
         <v>131</v>
@@ -6385,13 +6370,13 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D5" t="s">
         <v>176</v>
       </c>
       <c r="E5" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -6465,13 +6450,13 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D9" t="s">
         <v>176</v>
       </c>
       <c r="E9" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -6485,13 +6470,13 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -6505,13 +6490,13 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -6525,13 +6510,13 @@
         <v>292</v>
       </c>
       <c r="C12" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D12" t="s">
         <v>176</v>
       </c>
       <c r="E12" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="F12" t="s">
         <v>131</v>
@@ -6539,19 +6524,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D13" t="s">
         <v>176</v>
       </c>
       <c r="E13" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -6565,13 +6550,13 @@
         <v>348</v>
       </c>
       <c r="C14" t="s">
-        <v>497</v>
+        <v>640</v>
       </c>
       <c r="D14" t="s">
         <v>167</v>
       </c>
       <c r="E14" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="F14" t="s">
         <v>131</v>
@@ -6591,7 +6576,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -6631,7 +6616,7 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="F17" t="s">
         <v>131</v>
@@ -6651,7 +6636,7 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
@@ -6665,13 +6650,13 @@
         <v>292</v>
       </c>
       <c r="C19" t="s">
-        <v>497</v>
+        <v>640</v>
       </c>
       <c r="D19" t="s">
         <v>167</v>
       </c>
       <c r="E19" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>
@@ -6682,19 +6667,19 @@
         <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C20" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D20" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="E20" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="F20" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="21">
@@ -6711,7 +6696,7 @@
         <v>#N/A</v>
       </c>
       <c r="E21" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="F21" t="e">
         <v>#N/A</v>
@@ -6731,7 +6716,7 @@
         <v>#N/A</v>
       </c>
       <c r="E22" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F22" t="e">
         <v>#N/A</v>

--- a/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
+++ b/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="650">
   <si>
     <t xml:space="preserve">Term</t>
   </si>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">7 (23.3%)</t>
   </si>
   <si>
-    <t xml:space="preserve">30 (24.8%)</t>
+    <t xml:space="preserve">33 (27.3%)</t>
   </si>
   <si>
     <t xml:space="preserve">6.65</t>
@@ -1292,16 +1292,16 @@
     <t xml:space="preserve">6.64</t>
   </si>
   <si>
-    <t xml:space="preserve">12 (10.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (13.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (6.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79 (68.1%)</t>
+    <t xml:space="preserve">12 (10.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (13.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78 (67.8%)</t>
   </si>
   <si>
     <t xml:space="preserve">1 (0.9%)</t>
@@ -1313,13 +1313,13 @@
     <t xml:space="preserve">4 (50%)</t>
   </si>
   <si>
-    <t xml:space="preserve">32 (40.5%)</t>
+    <t xml:space="preserve">32 (41%)</t>
   </si>
   <si>
     <t xml:space="preserve">6 (37.5%)</t>
   </si>
   <si>
-    <t xml:space="preserve">47 (59.5%)</t>
+    <t xml:space="preserve">46 (59%)</t>
   </si>
   <si>
     <t xml:space="preserve">7 (87.5%)</t>
@@ -1337,22 +1337,22 @@
     <t xml:space="preserve">1 (12.5%)</t>
   </si>
   <si>
-    <t xml:space="preserve">6 (7.6%)</t>
+    <t xml:space="preserve">6 (7.7%)</t>
   </si>
   <si>
     <t xml:space="preserve">3 (18.8%)</t>
   </si>
   <si>
-    <t xml:space="preserve">72 (91.1%)</t>
+    <t xml:space="preserve">71 (91%)</t>
   </si>
   <si>
     <t xml:space="preserve">12 (75%)</t>
   </si>
   <si>
-    <t xml:space="preserve">2 (2.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75 (94.9%)</t>
+    <t xml:space="preserve">2 (2.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74 (94.9%)</t>
   </si>
   <si>
     <t xml:space="preserve">EPN, MPE</t>
@@ -1364,7 +1364,7 @@
     <t xml:space="preserve">2 (25%)</t>
   </si>
   <si>
-    <t xml:space="preserve">29 (36.7%)</t>
+    <t xml:space="preserve">28 (35.9%)</t>
   </si>
   <si>
     <t xml:space="preserve">EPN, PF B</t>
@@ -1385,7 +1385,7 @@
     <t xml:space="preserve">3 (37.5%)</t>
   </si>
   <si>
-    <t xml:space="preserve">14 (17.7%)</t>
+    <t xml:space="preserve">14 (17.9%)</t>
   </si>
   <si>
     <t xml:space="preserve">EPN, To be classified</t>
@@ -1394,25 +1394,28 @@
     <t xml:space="preserve">9 (56.2%)</t>
   </si>
   <si>
-    <t xml:space="preserve">24 (30.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (25.3%)</t>
+    <t xml:space="preserve">24 (30.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (25.6%)</t>
   </si>
   <si>
     <t xml:space="preserve">4 (25%)</t>
   </si>
   <si>
-    <t xml:space="preserve">16 (20.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (16.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58 (73.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (6.3%)</t>
+    <t xml:space="preserve">15 (19.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (20.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (16.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58 (74.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (5.1%)</t>
   </si>
   <si>
     <t xml:space="preserve">5.46</t>
@@ -1451,7 +1454,7 @@
     <t xml:space="preserve">4.31</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88</t>
+    <t xml:space="preserve">6.76</t>
   </si>
   <si>
     <t xml:space="preserve">9 (8.3%)</t>
@@ -1916,61 +1919,55 @@
     <t xml:space="preserve">12.47</t>
   </si>
   <si>
-    <t xml:space="preserve">4 (6.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (7.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (3.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52 (81.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 (32.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 (42.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (3.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 (53.8%)</t>
+    <t xml:space="preserve">2 (5.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (11.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 (73.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (2.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (24%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (52%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (56%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (44%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (4%)</t>
   </si>
   <si>
     <t xml:space="preserve">Unknown...12</t>
   </si>
   <si>
-    <t xml:space="preserve">5 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49 (94.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (5.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (1.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
+    <t xml:space="preserve">24 (96%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 (88%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.28</t>
   </si>
   <si>
     <t xml:space="preserve">33.98</t>
   </si>
   <si>
-    <t xml:space="preserve">42.72</t>
+    <t xml:space="preserve">29.77</t>
   </si>
   <si>
     <t xml:space="preserve">2.67</t>
@@ -3539,7 +3536,7 @@
         <v>451</v>
       </c>
       <c r="E25" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F25" t="s">
         <v>25</v>
@@ -3579,7 +3576,7 @@
         <v>451</v>
       </c>
       <c r="E27" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F27" t="s">
         <v>25</v>
@@ -3599,7 +3596,7 @@
         <v>431</v>
       </c>
       <c r="E28" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F28" t="s">
         <v>131</v>
@@ -3619,7 +3616,7 @@
         <v>435</v>
       </c>
       <c r="E29" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F29" t="s">
         <v>25</v>
@@ -3639,7 +3636,7 @@
         <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F30" t="s">
         <v>25</v>
@@ -3650,19 +3647,19 @@
         <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C31" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D31" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E31" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F31" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32">
@@ -3670,19 +3667,19 @@
         <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C32" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D32" t="s">
         <v>270</v>
       </c>
       <c r="E32" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F32" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="33">
@@ -3690,16 +3687,16 @@
         <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C33" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D33" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E33" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F33" t="e">
         <v>#N/A</v>
@@ -3744,19 +3741,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3">
@@ -3767,16 +3764,16 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D3" t="s">
         <v>173</v>
       </c>
       <c r="E3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4">
@@ -3784,19 +3781,19 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D4" t="s">
         <v>169</v>
       </c>
       <c r="E4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5">
@@ -3813,7 +3810,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -3827,7 +3824,7 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D6" t="s">
         <v>197</v>
@@ -3836,7 +3833,7 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7">
@@ -3847,7 +3844,7 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -3867,7 +3864,7 @@
         <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -3887,7 +3884,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -3904,19 +3901,19 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D10" t="s">
         <v>175</v>
       </c>
       <c r="E10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F10" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11">
@@ -3927,13 +3924,13 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -3947,13 +3944,13 @@
         <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -3964,19 +3961,19 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C13" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D13" t="s">
         <v>187</v>
       </c>
       <c r="E13" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F13" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14">
@@ -3987,16 +3984,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F14" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15">
@@ -4013,7 +4010,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -4027,16 +4024,16 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D16" t="s">
         <v>169</v>
       </c>
       <c r="E16" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F16" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17">
@@ -4053,10 +4050,10 @@
         <v>173</v>
       </c>
       <c r="E17" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F17" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18">
@@ -4067,7 +4064,7 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D18" t="s">
         <v>25</v>
@@ -4093,10 +4090,10 @@
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F19" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20">
@@ -4107,16 +4104,16 @@
         <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D20" t="s">
         <v>173</v>
       </c>
       <c r="E20" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F20" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21">
@@ -4127,13 +4124,13 @@
         <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D21" t="s">
         <v>175</v>
       </c>
       <c r="E21" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
@@ -4147,13 +4144,13 @@
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D22" t="s">
         <v>175</v>
       </c>
       <c r="E22" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -4164,19 +4161,19 @@
         <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C23" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D23" t="s">
         <v>173</v>
       </c>
       <c r="E23" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F23" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24">
@@ -4184,19 +4181,19 @@
         <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C24" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D24" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E24" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F24" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="25">
@@ -4204,19 +4201,19 @@
         <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C25" t="s">
         <v>335</v>
       </c>
       <c r="D25" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E25" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F25" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="26">
@@ -4224,19 +4221,19 @@
         <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C26" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D26" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E26" t="s">
         <v>276</v>
       </c>
       <c r="F26" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -4275,16 +4272,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3">
@@ -4301,7 +4298,7 @@
         <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4">
@@ -4309,7 +4306,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C4" t="s">
         <v>134</v>
@@ -4318,7 +4315,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5">
@@ -4420,7 +4417,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11">
@@ -4454,7 +4451,7 @@
         <v>131</v>
       </c>
       <c r="E12" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="13">
@@ -4476,7 +4473,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B14" t="s">
         <v>170</v>
@@ -4488,15 +4485,15 @@
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B15" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C15" t="s">
         <v>130</v>
@@ -4505,12 +4502,12 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -4522,15 +4519,15 @@
         <v>131</v>
       </c>
       <c r="E16" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B17" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C17" t="s">
         <v>143</v>
@@ -4539,7 +4536,7 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18">
@@ -4556,7 +4553,7 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19">
@@ -4564,7 +4561,7 @@
         <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C19" t="s">
         <v>143</v>
@@ -4598,7 +4595,7 @@
         <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C21" t="s">
         <v>148</v>
@@ -4607,7 +4604,7 @@
         <v>131</v>
       </c>
       <c r="E21" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="22">
@@ -4624,7 +4621,7 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="23">
@@ -4658,7 +4655,7 @@
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="25">
@@ -4675,7 +4672,7 @@
         <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="26">
@@ -4700,16 +4697,16 @@
         <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C27" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D27" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E27" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="28">
@@ -4717,16 +4714,16 @@
         <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C28" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D28" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E28" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="29">
@@ -4734,16 +4731,16 @@
         <v>120</v>
       </c>
       <c r="B29" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C29" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D29" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E29" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -4785,19 +4782,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D2" t="s">
         <v>555</v>
       </c>
-      <c r="D2" t="s">
-        <v>554</v>
-      </c>
       <c r="E2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3">
@@ -4814,7 +4811,7 @@
         <v>175</v>
       </c>
       <c r="E3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -4834,7 +4831,7 @@
         <v>197</v>
       </c>
       <c r="E4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F4" t="s">
         <v>167</v>
@@ -4854,7 +4851,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -4954,7 +4951,7 @@
         <v>175</v>
       </c>
       <c r="E10" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F10" t="s">
         <v>176</v>
@@ -4974,7 +4971,7 @@
         <v>175</v>
       </c>
       <c r="E11" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -5011,10 +5008,10 @@
         <v>239</v>
       </c>
       <c r="D13" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E13" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F13" t="s">
         <v>167</v>
@@ -5034,7 +5031,7 @@
         <v>175</v>
       </c>
       <c r="E14" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
@@ -5042,7 +5039,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B15" t="s">
         <v>175</v>
@@ -5054,7 +5051,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -5062,7 +5059,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B16" t="s">
         <v>197</v>
@@ -5074,7 +5071,7 @@
         <v>197</v>
       </c>
       <c r="E16" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F16" t="s">
         <v>167</v>
@@ -5082,7 +5079,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -5094,7 +5091,7 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F17" t="s">
         <v>25</v>
@@ -5102,7 +5099,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -5114,7 +5111,7 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
@@ -5122,7 +5119,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -5134,7 +5131,7 @@
         <v>175</v>
       </c>
       <c r="E19" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>
@@ -5154,7 +5151,7 @@
         <v>175</v>
       </c>
       <c r="E20" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
@@ -5174,7 +5171,7 @@
         <v>175</v>
       </c>
       <c r="E21" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F21" t="s">
         <v>176</v>
@@ -5194,7 +5191,7 @@
         <v>175</v>
       </c>
       <c r="E22" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -5214,7 +5211,7 @@
         <v>175</v>
       </c>
       <c r="E23" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F23" t="s">
         <v>25</v>
@@ -5234,7 +5231,7 @@
         <v>175</v>
       </c>
       <c r="E24" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F24" t="s">
         <v>176</v>
@@ -5254,7 +5251,7 @@
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F25" t="s">
         <v>25</v>
@@ -5294,7 +5291,7 @@
         <v>173</v>
       </c>
       <c r="E27" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F27" t="s">
         <v>25</v>
@@ -5311,10 +5308,10 @@
         <v>352</v>
       </c>
       <c r="D28" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E28" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F28" t="s">
         <v>176</v>
@@ -5328,13 +5325,13 @@
         <v>173</v>
       </c>
       <c r="C29" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F29" t="s">
         <v>176</v>
@@ -5354,7 +5351,7 @@
         <v>175</v>
       </c>
       <c r="E30" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F30" t="s">
         <v>25</v>
@@ -5365,19 +5362,19 @@
         <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C31" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D31" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E31" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F31" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="32">
@@ -5385,19 +5382,19 @@
         <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C32" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D32" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E32" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F32" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="33">
@@ -5405,19 +5402,19 @@
         <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C33" t="s">
         <v>278</v>
       </c>
       <c r="D33" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E33" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F33" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -5459,7 +5456,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C2" t="s">
         <v>65</v>
@@ -5482,13 +5479,13 @@
         <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D3" t="s">
         <v>227</v>
       </c>
       <c r="E3" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F3" t="s">
         <v>176</v>
@@ -5502,13 +5499,13 @@
         <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D4" t="s">
         <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F4" t="s">
         <v>176</v>
@@ -5539,7 +5536,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -5608,7 +5605,7 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -5639,7 +5636,7 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C11" t="s">
         <v>175</v>
@@ -5648,7 +5645,7 @@
         <v>245</v>
       </c>
       <c r="E11" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F11" t="s">
         <v>167</v>
@@ -5668,7 +5665,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -5688,7 +5685,7 @@
         <v>245</v>
       </c>
       <c r="E13" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -5708,7 +5705,7 @@
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F14" t="s">
         <v>176</v>
@@ -5728,7 +5725,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -5748,7 +5745,7 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F16" t="s">
         <v>176</v>
@@ -5768,7 +5765,7 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F17" t="s">
         <v>25</v>
@@ -5788,7 +5785,7 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
@@ -5808,7 +5805,7 @@
         <v>245</v>
       </c>
       <c r="E19" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>
@@ -5828,7 +5825,7 @@
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F20" t="s">
         <v>167</v>
@@ -5848,7 +5845,7 @@
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
@@ -5859,19 +5856,19 @@
         <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C22" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D22" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E22" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F22" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="23">
@@ -5885,10 +5882,10 @@
         <v>#N/A</v>
       </c>
       <c r="D23" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E23" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F23" t="e">
         <v>#N/A</v>
@@ -5899,19 +5896,19 @@
         <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C24" t="s">
+        <v>616</v>
+      </c>
+      <c r="D24" t="s">
+        <v>617</v>
+      </c>
+      <c r="E24" t="s">
         <v>615</v>
       </c>
-      <c r="D24" t="s">
-        <v>616</v>
-      </c>
-      <c r="E24" t="s">
-        <v>614</v>
-      </c>
       <c r="F24" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -5950,16 +5947,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="3">
@@ -6160,7 +6157,7 @@
         <v>227</v>
       </c>
       <c r="D14" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -6222,16 +6219,16 @@
         <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C18" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D18" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E18" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="19">
@@ -6239,13 +6236,13 @@
         <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C19" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D19" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E19" t="e">
         <v>#N/A</v>
@@ -6259,7 +6256,7 @@
         <v>#N/A</v>
       </c>
       <c r="C20" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D20" t="e">
         <v>#N/A</v>
@@ -6307,19 +6304,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C2" t="s">
+        <v>631</v>
+      </c>
+      <c r="D2" t="s">
         <v>630</v>
-      </c>
-      <c r="D2" t="s">
-        <v>631</v>
       </c>
       <c r="E2" t="s">
         <v>632</v>
       </c>
       <c r="F2" t="s">
-        <v>496</v>
+        <v>633</v>
       </c>
     </row>
     <row r="3">
@@ -6327,7 +6324,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>348</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -6336,7 +6333,7 @@
         <v>176</v>
       </c>
       <c r="E3" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -6347,10 +6344,10 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>347</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>489</v>
+        <v>288</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -6370,7 +6367,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>493</v>
+        <v>288</v>
       </c>
       <c r="D5" t="s">
         <v>176</v>
@@ -6407,7 +6404,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>348</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -6427,7 +6424,7 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>347</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -6450,7 +6447,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>493</v>
+        <v>288</v>
       </c>
       <c r="D9" t="s">
         <v>176</v>
@@ -6470,13 +6467,13 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>489</v>
+        <v>288</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -6490,13 +6487,13 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>482</v>
+        <v>347</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -6507,16 +6504,16 @@
         <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>292</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>482</v>
+        <v>347</v>
       </c>
       <c r="D12" t="s">
         <v>176</v>
       </c>
       <c r="E12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F12" t="s">
         <v>131</v>
@@ -6530,7 +6527,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>493</v>
+        <v>288</v>
       </c>
       <c r="D13" t="s">
         <v>176</v>
@@ -6547,16 +6544,16 @@
         <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>348</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>640</v>
+        <v>292</v>
       </c>
       <c r="D14" t="s">
         <v>167</v>
       </c>
       <c r="E14" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F14" t="s">
         <v>131</v>
@@ -6576,7 +6573,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -6584,10 +6581,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>355</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
-        <v>347</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
@@ -6596,15 +6593,15 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>641</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -6616,27 +6613,27 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F17" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>292</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="E18" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
@@ -6644,47 +6641,47 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>292</v>
+        <v>643</v>
       </c>
       <c r="C19" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D19" t="s">
-        <v>167</v>
+        <v>645</v>
       </c>
       <c r="E19" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>647</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" t="s">
-        <v>644</v>
-      </c>
-      <c r="C20" t="s">
-        <v>645</v>
-      </c>
-      <c r="D20" t="s">
-        <v>646</v>
+        <v>114</v>
+      </c>
+      <c r="B20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D20" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E20" t="s">
-        <v>647</v>
-      </c>
-      <c r="F20" t="s">
         <v>648</v>
+      </c>
+      <c r="F20" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B21" t="e">
         <v>#N/A</v>
@@ -6699,26 +6696,6 @@
         <v>649</v>
       </c>
       <c r="F21" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E22" t="s">
-        <v>650</v>
-      </c>
-      <c r="F22" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -8274,141 +8251,121 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>264</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>243</v>
       </c>
       <c r="E23" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>264</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="D24" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E24" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F24" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="D25" t="s">
-        <v>236</v>
+        <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="F25" t="s">
-        <v>227</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>268</v>
       </c>
       <c r="C26" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>270</v>
       </c>
       <c r="E26" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C27" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D27" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E27" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F27" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C28" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D28" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="E28" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F28" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" t="s">
-        <v>278</v>
-      </c>
-      <c r="C29" t="s">
-        <v>279</v>
-      </c>
-      <c r="D29" t="s">
-        <v>280</v>
-      </c>
-      <c r="E29" t="s">
-        <v>281</v>
-      </c>
-      <c r="F29" t="s">
         <v>282</v>
       </c>
     </row>
